--- a/doc/template_0_2_0.xlsx
+++ b/doc/template_0_2_0.xlsx
@@ -3547,7 +3547,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3601,18 +3601,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3623,6 +3611,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -5356,16 +5359,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="25.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="34" customWidth="1"/>
     <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
@@ -5374,7 +5377,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="22"/>
-      <c r="B1" s="27"/>
+      <c r="B1" s="36"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="23" t="s">
@@ -5385,7 +5388,7 @@
       <c r="A2" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="B2" s="26"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -5394,7 +5397,7 @@
       <c r="A3" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="34" t="s">
         <v>637</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -5405,7 +5408,7 @@
       <c r="A4" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="33" t="s">
         <v>555</v>
       </c>
       <c r="E4" s="2" t="s">
@@ -5416,7 +5419,7 @@
       <c r="A5" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="33" t="s">
         <v>638</v>
       </c>
       <c r="E5" s="2" t="s">
@@ -5427,7 +5430,7 @@
       <c r="A6" s="1" t="s">
         <v>498</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="33" t="s">
         <v>649</v>
       </c>
       <c r="E6" s="2" t="s">
@@ -5438,7 +5441,7 @@
       <c r="A7" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="33" t="s">
         <v>448</v>
       </c>
       <c r="C7" s="3" t="str">
@@ -5457,7 +5460,7 @@
       <c r="A8" s="1" t="s">
         <v>459</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="33" t="s">
         <v>449</v>
       </c>
       <c r="C8" s="3" t="str">
@@ -5476,7 +5479,7 @@
       <c r="A9" s="1" t="s">
         <v>480</v>
       </c>
-      <c r="B9" s="25">
+      <c r="B9" s="33">
         <v>2</v>
       </c>
       <c r="C9" s="3"/>
@@ -5489,7 +5492,7 @@
       <c r="A11" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="26"/>
+      <c r="B11" s="35"/>
       <c r="C11" s="12"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -5498,7 +5501,7 @@
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="33" t="s">
         <v>648</v>
       </c>
       <c r="E12" s="1" t="s">
@@ -5509,7 +5512,7 @@
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="33" t="s">
         <v>471</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -5520,7 +5523,7 @@
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="25" t="s">
+      <c r="B14" s="33" t="s">
         <v>472</v>
       </c>
     </row>
@@ -5528,7 +5531,7 @@
       <c r="A15" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B15" s="25" t="b">
+      <c r="B15" s="33" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -5539,7 +5542,7 @@
       <c r="A16" s="1" t="s">
         <v>490</v>
       </c>
-      <c r="B16" s="28" t="b">
+      <c r="B16" s="32" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -5550,7 +5553,7 @@
       <c r="A17" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="33" t="s">
         <v>492</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -5561,7 +5564,7 @@
       <c r="A18" s="1" t="s">
         <v>493</v>
       </c>
-      <c r="B18" s="25" t="s">
+      <c r="B18" s="33" t="s">
         <v>604</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -5569,13 +5572,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="25"/>
+      <c r="B19" s="33"/>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="26"/>
+      <c r="B20" s="35"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="14" t="s">
@@ -5586,15 +5589,15 @@
       <c r="A21" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="B21" s="25" t="s">
-        <v>602</v>
+      <c r="B21" s="33" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A23" s="12" t="s">
         <v>469</v>
       </c>
-      <c r="B23" s="26"/>
+      <c r="B23" s="35"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
       <c r="E23" s="14" t="s">
@@ -5605,7 +5608,7 @@
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B24" s="25" t="s">
+      <c r="B24" s="33" t="s">
         <v>476</v>
       </c>
     </row>
@@ -5613,181 +5616,181 @@
       <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="25">
+      <c r="B25" s="33">
         <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="str">
+      <c r="A26" s="39" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,1,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))=0,"",INDEX(Lookups!$C$12:$L$21,1,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))</f>
+        <v>popSize</v>
+      </c>
+      <c r="B26" s="34">
+        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,1,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))=0,"",INDEX(Lookups!$C$12:$L$21,1,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))</f>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="39" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,2,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))=0,"",INDEX(Lookups!$C$12:$L$21,2,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))</f>
+        <v>Generations</v>
+      </c>
+      <c r="B27" s="34">
+        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,2,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))=0,"",INDEX(Lookups!$C$12:$L$21,2,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))</f>
+        <v>5</v>
+      </c>
+      <c r="C27" s="39"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="39" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,3,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))=0,"",INDEX(Lookups!$C$12:$L$21,3,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))</f>
+        <v>waitGenerations</v>
+      </c>
+      <c r="B28" s="34">
+        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,3,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))=0,"",INDEX(Lookups!$C$12:$L$21,3,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="39" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,4,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))=0,"",INDEX(Lookups!$C$12:$L$21,4,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))</f>
+        <v>solutionTolerance</v>
+      </c>
+      <c r="B29" s="34">
+        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,4,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))=0,"",INDEX(Lookups!$C$12:$L$21,4,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="39" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,5,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))=0,"",INDEX(Lookups!$C$12:$L$21,5,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))</f>
         <v>epsilonGradient</v>
       </c>
-      <c r="B26" s="38">
-        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,1,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))=0,"",INDEX(Lookups!$C$12:$L$21,1,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))</f>
+      <c r="B30" s="34">
+        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,5,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))=0,"",INDEX(Lookups!$C$12:$L$21,5,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,2,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))=0,"",INDEX(Lookups!$C$12:$L$21,2,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))</f>
+    <row r="31" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="39" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,6,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))=0,"",INDEX(Lookups!$C$12:$L$21,6,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))</f>
         <v>pgtol</v>
       </c>
-      <c r="B27" s="38">
-        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,2,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))=0,"",INDEX(Lookups!$C$12:$L$21,2,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))</f>
+      <c r="B31" s="34">
+        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,6,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))=0,"",INDEX(Lookups!$C$12:$L$21,6,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))</f>
         <v>0.01</v>
       </c>
-      <c r="C27" s="38">
-        <f>MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,3,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))=0,"",INDEX(Lookups!$C$12:$L$21,3,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))</f>
+    </row>
+    <row r="32" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="39" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,7,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))=0,"",INDEX(Lookups!$C$12:$L$21,7,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))</f>
         <v>factr</v>
       </c>
-      <c r="B28" s="38">
-        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,3,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))=0,"",INDEX(Lookups!$C$12:$L$21,3,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))</f>
+      <c r="B32" s="34">
+        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,7,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))=0,"",INDEX(Lookups!$C$12:$L$21,7,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))</f>
         <v>45036000000000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,4,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))=0,"",INDEX(Lookups!$C$12:$L$21,4,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))</f>
+    <row r="33" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="39" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,8,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))=0,"",INDEX(Lookups!$C$12:$L$21,8,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))</f>
         <v>maxit</v>
       </c>
-      <c r="B29" s="38">
-        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,4,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))=0,"",INDEX(Lookups!$C$12:$L$21,4,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))</f>
+      <c r="B33" s="34">
+        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,8,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))=0,"",INDEX(Lookups!$C$12:$L$21,8,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))</f>
         <v>100</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,5,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))=0,"",INDEX(Lookups!$C$12:$L$21,5,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))</f>
+    <row r="34" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="39" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,9,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))=0,"",INDEX(Lookups!$C$12:$L$21,9,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))</f>
         <v>normType</v>
       </c>
-      <c r="B30" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,5,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))=0,"",INDEX(Lookups!$C$12:$L$21,5,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))</f>
+      <c r="B34" s="34" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,9,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))=0,"",INDEX(Lookups!$C$12:$L$21,9,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))</f>
         <v>minkowski</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,6,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))=0,"",INDEX(Lookups!$C$12:$L$21,6,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))</f>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="39" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,10,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))=0,"",INDEX(Lookups!$C$12:$L$21,10,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))</f>
         <v>pPower</v>
       </c>
-      <c r="B31" s="38">
-        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,6,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))=0,"",INDEX(Lookups!$C$12:$L$21,6,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,7,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))=0,"",INDEX(Lookups!$C$12:$L$21,7,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))</f>
-        <v/>
-      </c>
-      <c r="B32" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,7,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))=0,"",INDEX(Lookups!$C$12:$L$21,7,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,8,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))=0,"",INDEX(Lookups!$C$12:$L$21,8,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))</f>
-        <v/>
-      </c>
-      <c r="B33" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,8,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))=0,"",INDEX(Lookups!$C$12:$L$21,8,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,9,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))=0,"",INDEX(Lookups!$C$12:$L$21,9,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))</f>
-        <v/>
-      </c>
-      <c r="B34" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,9,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))=0,"",INDEX(Lookups!$C$12:$L$21,9,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,10,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))=0,"",INDEX(Lookups!$C$12:$L$21,10,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)-1))</f>
-        <v/>
-      </c>
-      <c r="B35" s="38" t="str">
+      <c r="B35" s="34">
         <f>IF(LEN(INDEX(Lookups!$C$12:$L$21,10,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))=0,"",INDEX(Lookups!$C$12:$L$21,10,2*MATCH(Setup!$B21,Lookups!$A$12:$A$18,0)))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="39" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="34"/>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="B36" s="26" t="s">
+      <c r="B37" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="D37" s="12"/>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B38" s="33" t="s">
         <v>470</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B40" s="35" t="s">
         <v>475</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D40" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E40" s="14" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B41" s="34" t="s">
         <v>632</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D41" s="24" t="s">
         <v>631</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
+    <row r="43" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="26" t="s">
+      <c r="B43" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C43" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="14"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="14"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -5872,28 +5875,28 @@
       <c r="H1" s="6"/>
       <c r="I1" s="7"/>
       <c r="J1" s="7"/>
-      <c r="K1" s="29" t="s">
+      <c r="K1" s="25" t="s">
         <v>503</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="31" t="s">
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="27" t="s">
         <v>504</v>
       </c>
-      <c r="Q1" s="32"/>
+      <c r="Q1" s="28"/>
       <c r="R1" s="6"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
-      <c r="U1" s="35" t="s">
+      <c r="U1" s="31" t="s">
         <v>68</v>
       </c>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
+      <c r="V1" s="31"/>
+      <c r="W1" s="31"/>
+      <c r="X1" s="31"/>
+      <c r="Y1" s="31"/>
+      <c r="Z1" s="31"/>
     </row>
     <row r="2" spans="1:26" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -7497,17 +7500,17 @@
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
       <c r="J57" s="20"/>
-      <c r="K57" s="33"/>
-      <c r="L57" s="33"/>
-      <c r="M57" s="33"/>
-      <c r="N57" s="33"/>
-      <c r="O57" s="33"/>
+      <c r="K57" s="29"/>
+      <c r="L57" s="29"/>
+      <c r="M57" s="29"/>
+      <c r="N57" s="29"/>
+      <c r="O57" s="29"/>
       <c r="P57" s="1"/>
-      <c r="Q57" s="33"/>
-      <c r="R57" s="33"/>
-      <c r="S57" s="33"/>
-      <c r="T57" s="33"/>
-      <c r="U57" s="33"/>
+      <c r="Q57" s="29"/>
+      <c r="R57" s="29"/>
+      <c r="S57" s="29"/>
+      <c r="T57" s="29"/>
+      <c r="U57" s="29"/>
     </row>
     <row r="58" spans="1:21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
@@ -7535,16 +7538,16 @@
         <v>439</v>
       </c>
       <c r="K58" s="20"/>
-      <c r="L58" s="33"/>
-      <c r="M58" s="33"/>
-      <c r="N58" s="33"/>
-      <c r="O58" s="33"/>
+      <c r="L58" s="29"/>
+      <c r="M58" s="29"/>
+      <c r="N58" s="29"/>
+      <c r="O58" s="29"/>
       <c r="P58" s="1"/>
-      <c r="Q58" s="33"/>
-      <c r="R58" s="33"/>
-      <c r="S58" s="33"/>
-      <c r="T58" s="33"/>
-      <c r="U58" s="33"/>
+      <c r="Q58" s="29"/>
+      <c r="R58" s="29"/>
+      <c r="S58" s="29"/>
+      <c r="T58" s="29"/>
+      <c r="U58" s="29"/>
     </row>
     <row r="59" spans="1:21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
@@ -7569,13 +7572,13 @@
         <v>1</v>
       </c>
       <c r="J59" s="20"/>
-      <c r="K59" s="34">
+      <c r="K59" s="30">
         <v>-2</v>
       </c>
-      <c r="L59" s="34">
-        <v>2</v>
-      </c>
-      <c r="M59" s="34">
+      <c r="L59" s="30">
+        <v>2</v>
+      </c>
+      <c r="M59" s="30">
         <v>0</v>
       </c>
       <c r="N59" s="3">
@@ -7584,13 +7587,13 @@
       </c>
       <c r="O59" s="3"/>
       <c r="P59" s="1"/>
-      <c r="Q59" s="33"/>
-      <c r="R59" s="33" t="s">
+      <c r="Q59" s="29"/>
+      <c r="R59" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="S59" s="33"/>
-      <c r="T59" s="33"/>
-      <c r="U59" s="33"/>
+      <c r="S59" s="29"/>
+      <c r="T59" s="29"/>
+      <c r="U59" s="29"/>
     </row>
     <row r="60" spans="1:21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A60" t="b">
@@ -7611,17 +7614,17 @@
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
       <c r="J60" s="20"/>
-      <c r="K60" s="33"/>
-      <c r="L60" s="33"/>
-      <c r="M60" s="33"/>
-      <c r="N60" s="33"/>
-      <c r="O60" s="33"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="29"/>
+      <c r="O60" s="29"/>
       <c r="P60" s="1"/>
-      <c r="Q60" s="33"/>
-      <c r="R60" s="33"/>
-      <c r="S60" s="33"/>
-      <c r="T60" s="33"/>
-      <c r="U60" s="33"/>
+      <c r="Q60" s="29"/>
+      <c r="R60" s="29"/>
+      <c r="S60" s="29"/>
+      <c r="T60" s="29"/>
+      <c r="U60" s="29"/>
     </row>
     <row r="61" spans="1:21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="20"/>
@@ -7649,16 +7652,16 @@
         <v>439</v>
       </c>
       <c r="K61" s="20"/>
-      <c r="L61" s="33"/>
-      <c r="M61" s="33"/>
-      <c r="N61" s="33"/>
-      <c r="O61" s="33"/>
+      <c r="L61" s="29"/>
+      <c r="M61" s="29"/>
+      <c r="N61" s="29"/>
+      <c r="O61" s="29"/>
       <c r="P61" s="1"/>
-      <c r="Q61" s="33"/>
-      <c r="R61" s="33"/>
-      <c r="S61" s="33"/>
-      <c r="T61" s="33"/>
-      <c r="U61" s="33"/>
+      <c r="Q61" s="29"/>
+      <c r="R61" s="29"/>
+      <c r="S61" s="29"/>
+      <c r="T61" s="29"/>
+      <c r="U61" s="29"/>
     </row>
     <row r="62" spans="1:21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
@@ -7683,13 +7686,13 @@
         <v>1</v>
       </c>
       <c r="J62" s="20"/>
-      <c r="K62" s="34">
+      <c r="K62" s="30">
         <v>-2</v>
       </c>
-      <c r="L62" s="34">
-        <v>2</v>
-      </c>
-      <c r="M62" s="34">
+      <c r="L62" s="30">
+        <v>2</v>
+      </c>
+      <c r="M62" s="30">
         <v>0</v>
       </c>
       <c r="N62" s="3">
@@ -7698,13 +7701,13 @@
       </c>
       <c r="O62" s="3"/>
       <c r="P62" s="1"/>
-      <c r="Q62" s="33"/>
-      <c r="R62" s="33" t="s">
+      <c r="Q62" s="29"/>
+      <c r="R62" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="S62" s="33"/>
-      <c r="T62" s="33"/>
-      <c r="U62" s="33"/>
+      <c r="S62" s="29"/>
+      <c r="T62" s="29"/>
+      <c r="U62" s="29"/>
     </row>
     <row r="63" spans="1:21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A63" t="b">
@@ -7725,17 +7728,17 @@
       <c r="H63" s="20"/>
       <c r="I63" s="20"/>
       <c r="J63" s="20"/>
-      <c r="K63" s="33"/>
-      <c r="L63" s="33"/>
-      <c r="M63" s="33"/>
-      <c r="N63" s="33"/>
-      <c r="O63" s="33"/>
+      <c r="K63" s="29"/>
+      <c r="L63" s="29"/>
+      <c r="M63" s="29"/>
+      <c r="N63" s="29"/>
+      <c r="O63" s="29"/>
       <c r="P63" s="1"/>
-      <c r="Q63" s="33"/>
-      <c r="R63" s="33"/>
-      <c r="S63" s="33"/>
-      <c r="T63" s="33"/>
-      <c r="U63" s="33"/>
+      <c r="Q63" s="29"/>
+      <c r="R63" s="29"/>
+      <c r="S63" s="29"/>
+      <c r="T63" s="29"/>
+      <c r="U63" s="29"/>
     </row>
     <row r="64" spans="1:21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
@@ -7763,16 +7766,16 @@
         <v>439</v>
       </c>
       <c r="K64" s="20"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="33"/>
-      <c r="N64" s="33"/>
-      <c r="O64" s="33"/>
+      <c r="L64" s="29"/>
+      <c r="M64" s="29"/>
+      <c r="N64" s="29"/>
+      <c r="O64" s="29"/>
       <c r="P64" s="1"/>
-      <c r="Q64" s="33"/>
-      <c r="R64" s="33"/>
-      <c r="S64" s="33"/>
-      <c r="T64" s="33"/>
-      <c r="U64" s="33"/>
+      <c r="Q64" s="29"/>
+      <c r="R64" s="29"/>
+      <c r="S64" s="29"/>
+      <c r="T64" s="29"/>
+      <c r="U64" s="29"/>
     </row>
     <row r="65" spans="1:24" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
@@ -7797,13 +7800,13 @@
         <v>1</v>
       </c>
       <c r="J65" s="20"/>
-      <c r="K65" s="34">
+      <c r="K65" s="30">
         <v>-2</v>
       </c>
-      <c r="L65" s="34">
-        <v>2</v>
-      </c>
-      <c r="M65" s="34">
+      <c r="L65" s="30">
+        <v>2</v>
+      </c>
+      <c r="M65" s="30">
         <v>0</v>
       </c>
       <c r="N65" s="3">
@@ -7812,13 +7815,13 @@
       </c>
       <c r="O65" s="3"/>
       <c r="P65" s="1"/>
-      <c r="Q65" s="33"/>
-      <c r="R65" s="33" t="s">
+      <c r="Q65" s="29"/>
+      <c r="R65" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="S65" s="33"/>
-      <c r="T65" s="33"/>
-      <c r="U65" s="33"/>
+      <c r="S65" s="29"/>
+      <c r="T65" s="29"/>
+      <c r="U65" s="29"/>
     </row>
     <row r="66" spans="1:24" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A66" t="b">
@@ -7839,17 +7842,17 @@
       <c r="H66" s="20"/>
       <c r="I66" s="20"/>
       <c r="J66" s="20"/>
-      <c r="K66" s="33"/>
-      <c r="L66" s="33"/>
-      <c r="M66" s="33"/>
-      <c r="N66" s="33"/>
-      <c r="O66" s="33"/>
+      <c r="K66" s="29"/>
+      <c r="L66" s="29"/>
+      <c r="M66" s="29"/>
+      <c r="N66" s="29"/>
+      <c r="O66" s="29"/>
       <c r="P66" s="1"/>
-      <c r="Q66" s="33"/>
-      <c r="R66" s="33"/>
-      <c r="S66" s="33"/>
-      <c r="T66" s="33"/>
-      <c r="U66" s="33"/>
+      <c r="Q66" s="29"/>
+      <c r="R66" s="29"/>
+      <c r="S66" s="29"/>
+      <c r="T66" s="29"/>
+      <c r="U66" s="29"/>
     </row>
     <row r="67" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
@@ -7877,18 +7880,18 @@
         <v>439</v>
       </c>
       <c r="K67" s="20"/>
-      <c r="L67" s="33"/>
-      <c r="M67" s="33"/>
-      <c r="N67" s="33"/>
-      <c r="O67" s="33"/>
-      <c r="Q67" s="33"/>
-      <c r="R67" s="33"/>
-      <c r="S67" s="33"/>
-      <c r="T67" s="33"/>
-      <c r="U67" s="33"/>
-      <c r="V67" s="33"/>
-      <c r="W67" s="33"/>
-      <c r="X67" s="33"/>
+      <c r="L67" s="29"/>
+      <c r="M67" s="29"/>
+      <c r="N67" s="29"/>
+      <c r="O67" s="29"/>
+      <c r="Q67" s="29"/>
+      <c r="R67" s="29"/>
+      <c r="S67" s="29"/>
+      <c r="T67" s="29"/>
+      <c r="U67" s="29"/>
+      <c r="V67" s="29"/>
+      <c r="W67" s="29"/>
+      <c r="X67" s="29"/>
     </row>
     <row r="68" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
@@ -7913,13 +7916,13 @@
         <v>1</v>
       </c>
       <c r="J68" s="20"/>
-      <c r="K68" s="34">
+      <c r="K68" s="30">
         <v>-2</v>
       </c>
-      <c r="L68" s="34">
-        <v>2</v>
-      </c>
-      <c r="M68" s="34">
+      <c r="L68" s="30">
+        <v>2</v>
+      </c>
+      <c r="M68" s="30">
         <v>0</v>
       </c>
       <c r="N68" s="3">
@@ -7927,16 +7930,16 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="O68" s="3"/>
-      <c r="Q68" s="33"/>
-      <c r="R68" s="33" t="s">
+      <c r="Q68" s="29"/>
+      <c r="R68" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="S68" s="33"/>
-      <c r="T68" s="33"/>
-      <c r="U68" s="33"/>
-      <c r="V68" s="33"/>
-      <c r="W68" s="33"/>
-      <c r="X68" s="33"/>
+      <c r="S68" s="29"/>
+      <c r="T68" s="29"/>
+      <c r="U68" s="29"/>
+      <c r="V68" s="29"/>
+      <c r="W68" s="29"/>
+      <c r="X68" s="29"/>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A69" t="b">
@@ -7959,9 +7962,9 @@
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69"/>
-      <c r="V69" s="33"/>
-      <c r="W69" s="33"/>
-      <c r="X69" s="33"/>
+      <c r="V69" s="29"/>
+      <c r="W69" s="29"/>
+      <c r="X69" s="29"/>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A70"/>
@@ -7990,9 +7993,9 @@
       </c>
       <c r="K70"/>
       <c r="L70"/>
-      <c r="V70" s="33"/>
-      <c r="W70" s="33"/>
-      <c r="X70" s="33"/>
+      <c r="V70" s="29"/>
+      <c r="W70" s="29"/>
+      <c r="X70" s="29"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A71"/>
@@ -8019,9 +8022,9 @@
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
-      <c r="V71" s="33"/>
-      <c r="W71" s="33"/>
-      <c r="X71" s="33"/>
+      <c r="V71" s="29"/>
+      <c r="W71" s="29"/>
+      <c r="X71" s="29"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A72"/>
@@ -8060,13 +8063,13 @@
         <v>6.6666666666666666E-2</v>
       </c>
       <c r="O72" s="3"/>
-      <c r="Q72" s="33"/>
-      <c r="R72" s="33" t="s">
+      <c r="Q72" s="29"/>
+      <c r="R72" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="V72" s="33"/>
-      <c r="W72" s="33"/>
-      <c r="X72" s="33"/>
+      <c r="V72" s="29"/>
+      <c r="W72" s="29"/>
+      <c r="X72" s="29"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A73"/>
@@ -8093,9 +8096,9 @@
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73"/>
-      <c r="V73" s="33"/>
-      <c r="W73" s="33"/>
-      <c r="X73" s="33"/>
+      <c r="V73" s="29"/>
+      <c r="W73" s="29"/>
+      <c r="X73" s="29"/>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A74"/>
@@ -8122,9 +8125,9 @@
       <c r="J74"/>
       <c r="K74"/>
       <c r="L74"/>
-      <c r="V74" s="33"/>
-      <c r="W74" s="33"/>
-      <c r="X74" s="33"/>
+      <c r="V74" s="29"/>
+      <c r="W74" s="29"/>
+      <c r="X74" s="29"/>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A75"/>
@@ -8153,9 +8156,9 @@
       </c>
       <c r="K75"/>
       <c r="L75"/>
-      <c r="V75" s="33"/>
-      <c r="W75" s="33"/>
-      <c r="X75" s="33"/>
+      <c r="V75" s="29"/>
+      <c r="W75" s="29"/>
+      <c r="X75" s="29"/>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A76"/>
@@ -8184,9 +8187,9 @@
       </c>
       <c r="K76"/>
       <c r="L76"/>
-      <c r="V76" s="33"/>
-      <c r="W76" s="33"/>
-      <c r="X76" s="33"/>
+      <c r="V76" s="29"/>
+      <c r="W76" s="29"/>
+      <c r="X76" s="29"/>
     </row>
     <row r="77" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A77" t="b">
@@ -8726,9 +8729,9 @@
       <c r="S95"/>
       <c r="T95"/>
       <c r="U95"/>
-      <c r="V95" s="33"/>
-      <c r="W95" s="33"/>
-      <c r="X95" s="33"/>
+      <c r="V95" s="29"/>
+      <c r="W95" s="29"/>
+      <c r="X95" s="29"/>
     </row>
     <row r="96" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
@@ -8766,8 +8769,8 @@
         <v>5</v>
       </c>
       <c r="P96" s="1"/>
-      <c r="Q96" s="33"/>
-      <c r="R96" s="33" t="s">
+      <c r="Q96" s="29"/>
+      <c r="R96" s="29" t="s">
         <v>27</v>
       </c>
     </row>
@@ -17735,7 +17738,7 @@
       <c r="G12" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="H12" s="36">
+      <c r="H12" s="37">
         <v>0.01</v>
       </c>
       <c r="I12" s="1" t="s">
@@ -17744,7 +17747,7 @@
       <c r="J12">
         <v>30</v>
       </c>
-      <c r="K12" s="38" t="s">
+      <c r="K12" s="39" t="s">
         <v>658</v>
       </c>
       <c r="L12">
@@ -17758,16 +17761,16 @@
       <c r="G13" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="H13" s="36">
+      <c r="H13" s="37">
         <v>0.01</v>
       </c>
-      <c r="I13" s="38" t="s">
+      <c r="I13" s="39" t="s">
         <v>658</v>
       </c>
       <c r="J13">
         <v>5</v>
       </c>
-      <c r="K13" s="38" t="s">
+      <c r="K13" s="39" t="s">
         <v>659</v>
       </c>
       <c r="L13">
@@ -17781,7 +17784,7 @@
       <c r="G14" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="H14" s="36">
+      <c r="H14" s="37">
         <v>45036000000000</v>
       </c>
       <c r="I14" s="1" t="s">
@@ -17790,7 +17793,7 @@
       <c r="J14">
         <v>3</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="K14" s="39" t="s">
         <v>660</v>
       </c>
       <c r="L14">
@@ -17810,10 +17813,10 @@
       <c r="I15" s="1" t="s">
         <v>656</v>
       </c>
-      <c r="J15" s="36">
+      <c r="J15" s="37">
         <v>0.01</v>
       </c>
-      <c r="K15" s="38" t="s">
+      <c r="K15" s="39" t="s">
         <v>661</v>
       </c>
       <c r="L15">
@@ -17827,16 +17830,16 @@
       <c r="G16" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="H16" s="38" t="s">
+      <c r="H16" s="39" t="s">
         <v>600</v>
       </c>
       <c r="I16" s="1" t="s">
         <v>598</v>
       </c>
-      <c r="J16" s="36">
+      <c r="J16" s="37">
         <v>0.01</v>
       </c>
-      <c r="K16" s="38" t="s">
+      <c r="K16" s="39" t="s">
         <v>662</v>
       </c>
       <c r="L16">
@@ -17850,19 +17853,19 @@
       <c r="G17" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="H17" s="38">
+      <c r="H17" s="39">
         <v>2</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>603</v>
       </c>
-      <c r="J17" s="36">
+      <c r="J17" s="37">
         <v>0.01</v>
       </c>
-      <c r="K17" s="38" t="s">
+      <c r="K17" s="39" t="s">
         <v>599</v>
       </c>
-      <c r="L17" s="38" t="s">
+      <c r="L17" s="39" t="s">
         <v>600</v>
       </c>
     </row>
@@ -17873,13 +17876,13 @@
       <c r="I18" s="1" t="s">
         <v>651</v>
       </c>
-      <c r="J18" s="36">
+      <c r="J18" s="37">
         <v>45036000000000</v>
       </c>
-      <c r="K18" s="38" t="s">
+      <c r="K18" s="39" t="s">
         <v>601</v>
       </c>
-      <c r="L18" s="38">
+      <c r="L18" s="39">
         <v>2</v>
       </c>
     </row>
@@ -17887,7 +17890,7 @@
       <c r="I19" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="J19" s="37">
+      <c r="J19" s="38">
         <v>100</v>
       </c>
     </row>
@@ -17895,7 +17898,7 @@
       <c r="I20" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="J20" s="38" t="s">
+      <c r="J20" s="39" t="s">
         <v>600</v>
       </c>
     </row>
@@ -17903,7 +17906,7 @@
       <c r="I21" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="J21" s="38">
+      <c r="J21" s="39">
         <v>2</v>
       </c>
     </row>

--- a/doc/template_0_2_0.xlsx
+++ b/doc/template_0_2_0.xlsx
@@ -18,10 +18,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Outputs!$A$2:$G$14</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Variables!$A$2:$AA$15</definedName>
     <definedName name="AnalysisType">Lookups!$A$13:$A$19</definedName>
-    <definedName name="nsga">Lookups!$K$14:$L$20</definedName>
-    <definedName name="nsga_nrel">Lookups!$K$14:$L$20</definedName>
-    <definedName name="optim">Lookups!$G$13:$H$18</definedName>
-    <definedName name="rgenoud">Lookups!$I$13:$J$22</definedName>
+    <definedName name="nsga">Lookups!$O$14:$P$20</definedName>
+    <definedName name="nsga_nrel">Lookups!$O$14:$P$20</definedName>
+    <definedName name="optim">Lookups!$I$13:$J$18</definedName>
+    <definedName name="rgenoud">Lookups!$L$13:$M$22</definedName>
     <definedName name="samplemethod">Lookups!$A$8:$A$10</definedName>
     <definedName name="SensitivityType">Lookups!$A$8:$A$9</definedName>
     <definedName name="sentivity">Lookups!$A$8:$A$9</definedName>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2506" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="663">
   <si>
     <t>type</t>
   </si>
@@ -2019,6 +2019,9 @@
   </si>
   <si>
     <t>SensitivityType</t>
+  </si>
+  <si>
+    <t>Sample Method</t>
   </si>
 </sst>
 </file>
@@ -5361,7 +5364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -5594,10 +5597,7 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="38" t="str">
-        <f>IF(IF(ISNA(MATCH($B$21,Lookups!A14,0)),0,1),"Sample Method","")</f>
-        <v>Sample Method</v>
-      </c>
+      <c r="A22" s="38"/>
     </row>
     <row r="23" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B23" s="33"/>
@@ -5615,107 +5615,146 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$L$22,1,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$L$22,1,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v>Number of Samples</v>
-      </c>
-      <c r="B25" s="33">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$L$22,1,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$L$22,1,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
-        <v>30</v>
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
+        <v>Sample Method</v>
+      </c>
+      <c r="B25" s="38" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <v>individual_variables</v>
+      </c>
+      <c r="C25" s="33" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
+        <v/>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$L$22,2,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$L$22,2,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
+        <v>Number of Samples</v>
+      </c>
+      <c r="B26" s="38">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <v>30</v>
+      </c>
+      <c r="C26" s="33" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v/>
       </c>
-      <c r="B26" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$L$22,2,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$L$22,2,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
-        <v/>
-      </c>
-      <c r="C26" s="38"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$L$22,3,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$L$22,3,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v/>
       </c>
-      <c r="B27" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$L$22,3,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$L$22,3,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
+      <c r="B27" s="38" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <v/>
+      </c>
+      <c r="C27" s="33" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$L$22,4,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$L$22,4,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v/>
       </c>
-      <c r="B28" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$L$22,4,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$L$22,4,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
+      <c r="B28" s="38" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <v/>
+      </c>
+      <c r="C28" s="33" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$L$22,5,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$L$22,5,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v/>
       </c>
-      <c r="B29" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$L$22,5,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$L$22,5,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
+      <c r="B29" s="38" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <v/>
+      </c>
+      <c r="C29" s="33" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$L$22,6,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$L$22,6,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v/>
       </c>
-      <c r="B30" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$L$22,6,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$L$22,6,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
+      <c r="B30" s="38" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <v/>
+      </c>
+      <c r="C30" s="33" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$L$22,7,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$L$22,7,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v/>
       </c>
-      <c r="B31" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$L$22,7,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$L$22,7,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
+      <c r="B31" s="38" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <v/>
+      </c>
+      <c r="C31" s="33" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$L$22,8,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$L$22,8,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v/>
       </c>
-      <c r="B32" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$L$22,8,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$L$22,8,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
+      <c r="B32" s="38" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <v/>
+      </c>
+      <c r="C32" s="33" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$L$22,9,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$L$22,9,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v/>
       </c>
-      <c r="B33" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$L$22,9,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$L$22,9,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
+      <c r="B33" s="38" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <v/>
+      </c>
+      <c r="C33" s="33" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$L$22,10,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$L$22,10,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
         <v/>
       </c>
-      <c r="B34" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$L$22,10,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$L$22,10,2*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
+      <c r="B34" s="38" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
         <v/>
       </c>
+      <c r="C34" s="33" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
+        <v/>
+      </c>
     </row>
     <row r="35" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
     </row>
     <row r="36" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" s="12" t="s">
@@ -5786,7 +5825,7 @@
       <c r="E42" s="14"/>
     </row>
   </sheetData>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
       <formula1>AnalysisType</formula1>
     </dataValidation>
@@ -5795,9 +5834,6 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
       <formula1>Workflow</formula1>
-    </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="B22">
-      <formula1>samplemethod</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17599,10 +17635,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:U22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A10"/>
+      <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17613,7 +17649,7 @@
     <col min="5" max="5" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>456</v>
       </c>
@@ -17624,7 +17660,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>446</v>
       </c>
@@ -17635,7 +17671,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>447</v>
       </c>
@@ -17646,7 +17682,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>454</v>
       </c>
@@ -17657,7 +17693,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>448</v>
       </c>
@@ -17668,7 +17704,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>661</v>
       </c>
@@ -17679,7 +17715,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>474</v>
       </c>
@@ -17690,7 +17726,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>472</v>
       </c>
@@ -17701,215 +17737,227 @@
         <v>602</v>
       </c>
     </row>
-    <row r="10" spans="1:12" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>637</v>
       </c>
       <c r="C12" t="s">
         <v>638</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>15</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>648</v>
       </c>
-      <c r="I12" t="s">
+      <c r="L12" t="s">
         <v>651</v>
       </c>
-      <c r="K12" t="s">
+      <c r="O12" t="s">
         <v>655</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="R12" s="37" t="s">
+        <v>641</v>
+      </c>
+      <c r="U12" s="37" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>638</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
+        <v>662</v>
+      </c>
+      <c r="G13" t="s">
+        <v>474</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>596</v>
+      </c>
+      <c r="J13" s="36">
+        <v>0.01</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>653</v>
+      </c>
+      <c r="M13">
+        <v>30</v>
+      </c>
+      <c r="O13" t="s">
         <v>4</v>
       </c>
-      <c r="F13">
+      <c r="P13">
         <v>30</v>
       </c>
-      <c r="G13" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="H13" s="36">
-        <v>0.01</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>653</v>
-      </c>
-      <c r="J13">
-        <v>30</v>
-      </c>
-      <c r="K13" t="s">
-        <v>4</v>
-      </c>
-      <c r="L13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="F14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>30</v>
+      </c>
+      <c r="I14" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="H14" s="36">
+      <c r="J14" s="36">
         <v>0.01</v>
       </c>
-      <c r="I14" s="38" t="s">
+      <c r="L14" s="38" t="s">
         <v>656</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>5</v>
       </c>
-      <c r="K14" s="38" t="s">
+      <c r="O14" s="38" t="s">
         <v>656</v>
       </c>
-      <c r="L14">
+      <c r="P14">
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>600</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="I15" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="H15" s="36">
+      <c r="J15" s="36">
         <v>45036000000000</v>
       </c>
-      <c r="I15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>652</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>3</v>
       </c>
-      <c r="K15" s="38" t="s">
+      <c r="O15" s="38" t="s">
         <v>657</v>
       </c>
-      <c r="L15">
+      <c r="P15">
         <v>0.7</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>640</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="I16" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>100</v>
       </c>
-      <c r="I16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>654</v>
       </c>
-      <c r="J16" s="36">
+      <c r="M16" s="36">
         <v>0.01</v>
       </c>
-      <c r="K16" s="38" t="s">
+      <c r="O16" s="38" t="s">
         <v>658</v>
       </c>
-      <c r="L16">
+      <c r="P16">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>639</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="I17" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="H17" s="38" t="s">
+      <c r="J17" s="38" t="s">
         <v>598</v>
       </c>
-      <c r="I17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>596</v>
       </c>
-      <c r="J17" s="36">
+      <c r="M17" s="36">
         <v>0.01</v>
       </c>
-      <c r="K17" s="38" t="s">
+      <c r="O17" s="38" t="s">
         <v>659</v>
       </c>
-      <c r="L17">
+      <c r="P17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>641</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="I18" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="H18" s="38">
-        <v>2</v>
-      </c>
-      <c r="I18" s="1" t="s">
+      <c r="J18" s="38">
+        <v>2</v>
+      </c>
+      <c r="L18" s="1" t="s">
         <v>601</v>
       </c>
-      <c r="J18" s="36">
+      <c r="M18" s="36">
         <v>0.01</v>
       </c>
-      <c r="K18" s="38" t="s">
+      <c r="O18" s="38" t="s">
         <v>660</v>
       </c>
-      <c r="L18">
+      <c r="P18">
         <v>0.5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>642</v>
       </c>
-      <c r="I19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>649</v>
       </c>
-      <c r="J19" s="36">
+      <c r="M19" s="36">
         <v>45036000000000</v>
       </c>
-      <c r="K19" s="38" t="s">
+      <c r="O19" s="38" t="s">
         <v>597</v>
       </c>
-      <c r="L19" s="38" t="s">
+      <c r="P19" s="38" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I20" s="1" t="s">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L20" s="1" t="s">
         <v>650</v>
       </c>
-      <c r="J20" s="37">
+      <c r="M20" s="37">
         <v>100</v>
       </c>
-      <c r="K20" s="38" t="s">
+      <c r="O20" s="38" t="s">
         <v>599</v>
       </c>
-      <c r="L20" s="38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I21" s="1" t="s">
+      <c r="P20" s="38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L21" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="J21" s="38" t="s">
+      <c r="M21" s="38" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="I22" s="1" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="L22" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="J22" s="38">
+      <c r="M22" s="38">
         <v>2</v>
       </c>
     </row>

--- a/doc/template_0_2_0.xlsx
+++ b/doc/template_0_2_0.xlsx
@@ -21,10 +21,11 @@
     <definedName name="nsga">Lookups!$O$14:$P$20</definedName>
     <definedName name="nsga_nrel">Lookups!$O$14:$P$20</definedName>
     <definedName name="optim">Lookups!$I$13:$J$18</definedName>
-    <definedName name="rgenoud">Lookups!$L$13:$M$22</definedName>
+    <definedName name="rgenoud">Lookups!$L$13:$M$23</definedName>
     <definedName name="samplemethod">Lookups!$A$8:$A$10</definedName>
     <definedName name="SensitivityType">Lookups!$A$8:$A$9</definedName>
     <definedName name="sentivity">Lookups!$A$8:$A$9</definedName>
+    <definedName name="simulate_data_point">Lookups!$G$8</definedName>
     <definedName name="TrueFalse">Lookups!$C$8:$C$9</definedName>
     <definedName name="Workflow">Lookups!$E$8:$E$9</definedName>
   </definedNames>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2510" uniqueCount="663">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="682">
   <si>
     <t>type</t>
   </si>
@@ -2022,6 +2023,63 @@
   </si>
   <si>
     <t>Sample Method</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>individual_variables / all_variables</t>
+  </si>
+  <si>
+    <t>allowed values / ranges</t>
+  </si>
+  <si>
+    <t>positive integer</t>
+  </si>
+  <si>
+    <t>Lp norm power</t>
+  </si>
+  <si>
+    <t>Maximum number of iterations</t>
+  </si>
+  <si>
+    <t>Tolerance on delta_F</t>
+  </si>
+  <si>
+    <t>tolerance on the projected gradient</t>
+  </si>
+  <si>
+    <t>epsilon in gradient calculation</t>
+  </si>
+  <si>
+    <t>Number of generations</t>
+  </si>
+  <si>
+    <t>Size of initial population</t>
+  </si>
+  <si>
+    <t>bfgsburnin</t>
+  </si>
+  <si>
+    <t>The number of generations which are run before the BFGS is ﬁrst used</t>
+  </si>
+  <si>
+    <t>Numbers within solutionTolerance are considered equal</t>
+  </si>
+  <si>
+    <t>If no improvement in waitGenerations of generations, then exit</t>
+  </si>
+  <si>
+    <t>Crossover probability [0,1]</t>
+  </si>
+  <si>
+    <t>Mutation probability [0,1]</t>
+  </si>
+  <si>
+    <t>Crossover Distribution Index (large values give higher probabilities of offspring close to parent)</t>
+  </si>
+  <si>
+    <t>Mutation Distribution Index (large values give higher probabilities of offspring close to parent)</t>
   </si>
 </sst>
 </file>
@@ -5362,9 +5420,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -5593,7 +5651,7 @@
         <v>471</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>15</v>
+        <v>640</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -5607,7 +5665,9 @@
         <v>467</v>
       </c>
       <c r="B24" s="34"/>
-      <c r="C24" s="12"/>
+      <c r="C24" s="12" t="s">
+        <v>665</v>
+      </c>
       <c r="D24" s="12"/>
       <c r="E24" s="14" t="s">
         <v>475</v>
@@ -5616,137 +5676,137 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="38" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
-        <v>Sample Method</v>
-      </c>
-      <c r="B25" s="38" t="str">
+        <v>popSize</v>
+      </c>
+      <c r="B25" s="32">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v>individual_variables</v>
+        <v>30</v>
       </c>
       <c r="C25" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
-        <v/>
+        <v>Size of initial population</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="38" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
-        <v>Number of Samples</v>
-      </c>
-      <c r="B26" s="38">
+        <v>Generations</v>
+      </c>
+      <c r="B26" s="32">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="C26" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
-        <v/>
+        <v>Number of generations</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="38" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B27" s="38" t="str">
+        <v>waitGenerations</v>
+      </c>
+      <c r="B27" s="32">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="C27" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
-        <v/>
+        <v>If no improvement in waitGenerations of generations, then exit</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="38" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B28" s="38" t="str">
+        <v>bfgsburnin</v>
+      </c>
+      <c r="B28" s="32">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v/>
+        <v>2</v>
       </c>
       <c r="C28" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
-        <v/>
+        <v>The number of generations which are run before the BFGS is ﬁrst used</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="38" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B29" s="38" t="str">
+        <v>solutionTolerance</v>
+      </c>
+      <c r="B29" s="32">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v/>
+        <v>0.01</v>
       </c>
       <c r="C29" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
-        <v/>
+        <v>Numbers within solutionTolerance are considered equal</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="38" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B30" s="38" t="str">
+        <v>epsilonGradient</v>
+      </c>
+      <c r="B30" s="32">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v/>
+        <v>0.01</v>
       </c>
       <c r="C30" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
-        <v/>
+        <v>epsilon in gradient calculation</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="38" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B31" s="38" t="str">
+        <v>pgtol</v>
+      </c>
+      <c r="B31" s="32">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v/>
+        <v>0.01</v>
       </c>
       <c r="C31" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
-        <v/>
+        <v>tolerance on the projected gradient</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="38" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B32" s="38" t="str">
+        <v>factr</v>
+      </c>
+      <c r="B32" s="32">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v/>
+        <v>45036000000000</v>
       </c>
       <c r="C32" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
-        <v/>
+        <v>Tolerance on delta_F</v>
       </c>
     </row>
     <row r="33" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="38" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B33" s="38" t="str">
+        <v>maxit</v>
+      </c>
+      <c r="B33" s="32">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v/>
+        <v>100</v>
       </c>
       <c r="C33" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
-        <v/>
+        <v>Maximum number of iterations</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="38" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
-        <v/>
-      </c>
-      <c r="B34" s="38" t="str">
+        <v>normType</v>
+      </c>
+      <c r="B34" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v/>
+        <v>minkowski</v>
       </c>
       <c r="C34" s="33" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
@@ -5754,78 +5814,93 @@
       </c>
     </row>
     <row r="35" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="33"/>
-    </row>
-    <row r="36" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+      <c r="A35" s="38" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
+        <v>pPower</v>
+      </c>
+      <c r="B35" s="32">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <v>2</v>
+      </c>
+      <c r="C35" s="33" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
+        <v>Lp norm power</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="32"/>
+      <c r="C36" s="33"/>
+    </row>
+    <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B37" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C37" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="D36" s="12"/>
-      <c r="E36" s="14"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="D37" s="12"/>
+      <c r="E37" s="14"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B37" s="32" t="s">
+      <c r="B38" s="32" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
+    <row r="40" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B39" s="34" t="s">
+      <c r="B40" s="34" t="s">
         <v>473</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C40" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="D40" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E40" s="14" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+    <row r="41" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B41" s="33" t="s">
         <v>630</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C41" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D40" s="24" t="s">
+      <c r="D41" s="24" t="s">
         <v>629</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E41" s="2" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
+    <row r="43" spans="1:5" s="2" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A43" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="34" t="s">
+      <c r="B43" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="C42" s="12" t="s">
+      <c r="C43" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D42" s="12"/>
-      <c r="E42" s="14"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="14"/>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B21">
       <formula1>AnalysisType</formula1>
     </dataValidation>
@@ -5834,6 +5909,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B18">
       <formula1>Workflow</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17">
+      <formula1>simulate_data_point</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -17635,10 +17713,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U22"/>
+  <dimension ref="A1:U23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U13" sqref="U13"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17647,6 +17725,8 @@
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.21875" customWidth="1"/>
     <col min="5" max="5" width="16.109375" customWidth="1"/>
+    <col min="8" max="8" width="22.21875" customWidth="1"/>
+    <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
@@ -17714,6 +17794,9 @@
       <c r="E7" t="s">
         <v>644</v>
       </c>
+      <c r="G7" t="s">
+        <v>663</v>
+      </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
@@ -17724,6 +17807,9 @@
       </c>
       <c r="E8" t="s">
         <v>645</v>
+      </c>
+      <c r="G8" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.3">
@@ -17774,23 +17860,35 @@
       <c r="G13" t="s">
         <v>474</v>
       </c>
+      <c r="H13" t="s">
+        <v>664</v>
+      </c>
       <c r="I13" s="1" t="s">
         <v>596</v>
       </c>
       <c r="J13" s="36">
         <v>0.01</v>
       </c>
+      <c r="K13" s="38" t="s">
+        <v>671</v>
+      </c>
       <c r="L13" s="1" t="s">
         <v>653</v>
       </c>
       <c r="M13">
         <v>30</v>
       </c>
+      <c r="N13" t="s">
+        <v>673</v>
+      </c>
       <c r="O13" t="s">
         <v>4</v>
       </c>
       <c r="P13">
         <v>30</v>
+      </c>
+      <c r="Q13" s="37" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -17803,23 +17901,35 @@
       <c r="G14">
         <v>30</v>
       </c>
+      <c r="H14" t="s">
+        <v>666</v>
+      </c>
       <c r="I14" s="1" t="s">
         <v>601</v>
       </c>
       <c r="J14" s="36">
         <v>0.01</v>
       </c>
+      <c r="K14" t="s">
+        <v>670</v>
+      </c>
       <c r="L14" s="38" t="s">
         <v>656</v>
       </c>
       <c r="M14">
         <v>5</v>
       </c>
+      <c r="N14" s="37" t="s">
+        <v>672</v>
+      </c>
       <c r="O14" s="38" t="s">
         <v>656</v>
       </c>
       <c r="P14">
         <v>3</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -17832,17 +17942,26 @@
       <c r="J15" s="36">
         <v>45036000000000</v>
       </c>
+      <c r="K15" t="s">
+        <v>669</v>
+      </c>
       <c r="L15" s="1" t="s">
         <v>652</v>
       </c>
       <c r="M15">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="N15" t="s">
+        <v>677</v>
       </c>
       <c r="O15" s="38" t="s">
         <v>657</v>
       </c>
       <c r="P15">
-        <v>0.7</v>
+        <v>0.85</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -17855,20 +17974,29 @@
       <c r="J16">
         <v>100</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="M16" s="36">
-        <v>0.01</v>
+      <c r="K16" t="s">
+        <v>668</v>
+      </c>
+      <c r="L16" t="s">
+        <v>674</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
+        <v>675</v>
       </c>
       <c r="O16" s="38" t="s">
         <v>658</v>
       </c>
       <c r="P16">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>639</v>
       </c>
@@ -17879,19 +18007,25 @@
         <v>598</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>596</v>
+        <v>654</v>
       </c>
       <c r="M17" s="36">
         <v>0.01</v>
       </c>
+      <c r="N17" s="38" t="s">
+        <v>676</v>
+      </c>
       <c r="O17" s="38" t="s">
         <v>659</v>
       </c>
       <c r="P17">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="37" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>641</v>
       </c>
@@ -17901,28 +18035,40 @@
       <c r="J18" s="38">
         <v>2</v>
       </c>
+      <c r="K18" t="s">
+        <v>667</v>
+      </c>
       <c r="L18" s="1" t="s">
-        <v>601</v>
+        <v>596</v>
       </c>
       <c r="M18" s="36">
         <v>0.01</v>
       </c>
+      <c r="N18" s="38" t="s">
+        <v>671</v>
+      </c>
       <c r="O18" s="38" t="s">
         <v>660</v>
       </c>
       <c r="P18">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+        <v>0.8</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>642</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>649</v>
+        <v>601</v>
       </c>
       <c r="M19" s="36">
-        <v>45036000000000</v>
+        <v>0.01</v>
+      </c>
+      <c r="N19" s="37" t="s">
+        <v>670</v>
       </c>
       <c r="O19" s="38" t="s">
         <v>597</v>
@@ -17931,12 +18077,15 @@
         <v>598</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L20" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="M20" s="37">
-        <v>100</v>
+        <v>649</v>
+      </c>
+      <c r="M20" s="36">
+        <v>45036000000000</v>
+      </c>
+      <c r="N20" s="37" t="s">
+        <v>669</v>
       </c>
       <c r="O20" s="38" t="s">
         <v>599</v>
@@ -17944,21 +18093,38 @@
       <c r="P20" s="38">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="Q20" s="37" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L21" s="1" t="s">
+        <v>650</v>
+      </c>
+      <c r="M21" s="37">
+        <v>100</v>
+      </c>
+      <c r="N21" s="37" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L22" s="1" t="s">
         <v>597</v>
       </c>
-      <c r="M21" s="38" t="s">
+      <c r="M22" s="38" t="s">
         <v>598</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="L22" s="1" t="s">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="L23" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="M22" s="38">
-        <v>2</v>
+      <c r="M23" s="38">
+        <v>2</v>
+      </c>
+      <c r="N23" s="37" t="s">
+        <v>667</v>
       </c>
     </row>
   </sheetData>
@@ -17966,6 +18132,6 @@
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="instances" sqref="A2:A5"/>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/template_0_2_0.xlsx
+++ b/doc/template_0_2_0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-33540" yWindow="0" windowWidth="23256" windowHeight="5700" tabRatio="562" activeTab="1"/>
+    <workbookView xWindow="-33540" yWindow="0" windowWidth="23256" windowHeight="5700" tabRatio="562" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -2034,9 +2034,6 @@
     <t>allowed values / ranges</t>
   </si>
   <si>
-    <t>positive integer</t>
-  </si>
-  <si>
     <t>Lp norm power</t>
   </si>
   <si>
@@ -2080,6 +2077,9 @@
   </si>
   <si>
     <t>Mutation Distribution Index (large values give higher probabilities of offspring close to parent)</t>
+  </si>
+  <si>
+    <t>positive integer (if individual, total simulations is this times each variable)</t>
   </si>
 </sst>
 </file>
@@ -5422,7 +5422,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
       <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
@@ -17715,8 +17715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17870,7 +17870,7 @@
         <v>0.01</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="L13" s="1" t="s">
         <v>653</v>
@@ -17879,7 +17879,7 @@
         <v>30</v>
       </c>
       <c r="N13" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="O13" t="s">
         <v>4</v>
@@ -17888,7 +17888,7 @@
         <v>30</v>
       </c>
       <c r="Q13" s="37" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -17902,7 +17902,7 @@
         <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>666</v>
+        <v>681</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>601</v>
@@ -17911,7 +17911,7 @@
         <v>0.01</v>
       </c>
       <c r="K14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="L14" s="38" t="s">
         <v>656</v>
@@ -17920,7 +17920,7 @@
         <v>5</v>
       </c>
       <c r="N14" s="37" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="O14" s="38" t="s">
         <v>656</v>
@@ -17929,7 +17929,7 @@
         <v>3</v>
       </c>
       <c r="Q14" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
@@ -17943,7 +17943,7 @@
         <v>45036000000000</v>
       </c>
       <c r="K15" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="L15" s="1" t="s">
         <v>652</v>
@@ -17952,7 +17952,7 @@
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="O15" s="38" t="s">
         <v>657</v>
@@ -17961,7 +17961,7 @@
         <v>0.85</v>
       </c>
       <c r="Q15" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
@@ -17975,16 +17975,16 @@
         <v>100</v>
       </c>
       <c r="K16" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="L16" t="s">
+        <v>673</v>
+      </c>
+      <c r="M16">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s">
         <v>674</v>
-      </c>
-      <c r="M16">
-        <v>2</v>
-      </c>
-      <c r="N16" t="s">
-        <v>675</v>
       </c>
       <c r="O16" s="38" t="s">
         <v>658</v>
@@ -17993,7 +17993,7 @@
         <v>2</v>
       </c>
       <c r="Q16" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -18013,7 +18013,7 @@
         <v>0.01</v>
       </c>
       <c r="N17" s="38" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="O17" s="38" t="s">
         <v>659</v>
@@ -18022,7 +18022,7 @@
         <v>2</v>
       </c>
       <c r="Q17" s="37" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -18036,7 +18036,7 @@
         <v>2</v>
       </c>
       <c r="K18" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="L18" s="1" t="s">
         <v>596</v>
@@ -18045,7 +18045,7 @@
         <v>0.01</v>
       </c>
       <c r="N18" s="38" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="O18" s="38" t="s">
         <v>660</v>
@@ -18054,7 +18054,7 @@
         <v>0.8</v>
       </c>
       <c r="Q18" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -18068,7 +18068,7 @@
         <v>0.01</v>
       </c>
       <c r="N19" s="37" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="O19" s="38" t="s">
         <v>597</v>
@@ -18085,7 +18085,7 @@
         <v>45036000000000</v>
       </c>
       <c r="N20" s="37" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="O20" s="38" t="s">
         <v>599</v>
@@ -18094,7 +18094,7 @@
         <v>2</v>
       </c>
       <c r="Q20" s="37" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -18105,7 +18105,7 @@
         <v>100</v>
       </c>
       <c r="N21" s="37" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -18124,7 +18124,7 @@
         <v>2</v>
       </c>
       <c r="N23" s="37" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>

--- a/doc/template_0_2_0.xlsx
+++ b/doc/template_0_2_0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-33540" yWindow="0" windowWidth="23256" windowHeight="5700" tabRatio="562" activeTab="5"/>
+    <workbookView xWindow="-33540" yWindow="0" windowWidth="23256" windowHeight="5700" tabRatio="562" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2538" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="682">
   <si>
     <t>type</t>
   </si>
@@ -5423,7 +5423,7 @@
   <dimension ref="A1:E43"/>
   <sheetViews>
     <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5938,9 +5938,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z96"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6025,7 +6025,9 @@
       <c r="B3" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="11" t="s">
+        <v>28</v>
+      </c>
       <c r="D3" s="11" t="s">
         <v>48</v>
       </c>
@@ -17715,7 +17717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>

--- a/doc/template_0_2_0.xlsx
+++ b/doc/template_0_2_0.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2539" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="682">
   <si>
     <t>type</t>
   </si>
@@ -5939,8 +5939,8 @@
   <dimension ref="A1:Z96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <pane ySplit="3" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6135,7 +6135,9 @@
       <c r="B6" t="s">
         <v>73</v>
       </c>
-      <c r="C6"/>
+      <c r="C6" s="37" t="s">
+        <v>49</v>
+      </c>
       <c r="D6" t="s">
         <v>49</v>
       </c>
@@ -6436,7 +6438,9 @@
       <c r="B16" s="20" t="s">
         <v>293</v>
       </c>
-      <c r="C16" s="20"/>
+      <c r="C16" s="20" t="s">
+        <v>294</v>
+      </c>
       <c r="D16" s="20" t="s">
         <v>294</v>
       </c>
@@ -6746,6 +6750,9 @@
       <c r="B26" t="s">
         <v>75</v>
       </c>
+      <c r="C26" s="37" t="s">
+        <v>75</v>
+      </c>
       <c r="D26" t="s">
         <v>75</v>
       </c>
@@ -6886,7 +6893,9 @@
       <c r="B32" s="20" t="s">
         <v>195</v>
       </c>
-      <c r="C32" s="20"/>
+      <c r="C32" s="20" t="s">
+        <v>196</v>
+      </c>
       <c r="D32" s="20" t="s">
         <v>196</v>
       </c>
@@ -7022,7 +7031,9 @@
       <c r="B36" s="20" t="s">
         <v>335</v>
       </c>
-      <c r="C36" s="20"/>
+      <c r="C36" s="20" t="s">
+        <v>336</v>
+      </c>
       <c r="D36" s="20" t="s">
         <v>336</v>
       </c>
@@ -7112,7 +7123,9 @@
       <c r="B39" s="20" t="s">
         <v>224</v>
       </c>
-      <c r="C39" s="20"/>
+      <c r="C39" s="20" t="s">
+        <v>225</v>
+      </c>
       <c r="D39" s="20" t="s">
         <v>225</v>
       </c>
@@ -7504,7 +7517,9 @@
       <c r="B54" s="20" t="s">
         <v>505</v>
       </c>
-      <c r="C54" s="20"/>
+      <c r="C54" s="20" t="s">
+        <v>394</v>
+      </c>
       <c r="D54" s="20" t="s">
         <v>394</v>
       </c>
@@ -7594,7 +7609,9 @@
       <c r="B57" s="20" t="s">
         <v>506</v>
       </c>
-      <c r="C57" s="20"/>
+      <c r="C57" s="20" t="s">
+        <v>394</v>
+      </c>
       <c r="D57" s="20" t="s">
         <v>394</v>
       </c>
@@ -7708,7 +7725,9 @@
       <c r="B60" s="20" t="s">
         <v>507</v>
       </c>
-      <c r="C60" s="20"/>
+      <c r="C60" s="20" t="s">
+        <v>394</v>
+      </c>
       <c r="D60" s="20" t="s">
         <v>394</v>
       </c>
@@ -7822,7 +7841,9 @@
       <c r="B63" s="20" t="s">
         <v>508</v>
       </c>
-      <c r="C63" s="20"/>
+      <c r="C63" s="20" t="s">
+        <v>394</v>
+      </c>
       <c r="D63" s="20" t="s">
         <v>394</v>
       </c>
@@ -7936,7 +7957,9 @@
       <c r="B66" s="20" t="s">
         <v>509</v>
       </c>
-      <c r="C66" s="20"/>
+      <c r="C66" s="20" t="s">
+        <v>394</v>
+      </c>
       <c r="D66" s="20" t="s">
         <v>394</v>
       </c>
@@ -8054,7 +8077,9 @@
       <c r="B69" t="s">
         <v>515</v>
       </c>
-      <c r="C69"/>
+      <c r="C69" s="37" t="s">
+        <v>516</v>
+      </c>
       <c r="D69" t="s">
         <v>516</v>
       </c>
@@ -8303,6 +8328,9 @@
       </c>
       <c r="B77" t="s">
         <v>263</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>264</v>
       </c>
       <c r="D77" t="s">
         <v>264</v>
@@ -8473,7 +8501,9 @@
       <c r="B83" s="1" t="s">
         <v>567</v>
       </c>
-      <c r="C83" s="1"/>
+      <c r="C83" s="38" t="s">
+        <v>567</v>
+      </c>
       <c r="D83" s="1" t="s">
         <v>567</v>
       </c>
@@ -8571,6 +8601,9 @@
       <c r="B86" t="s">
         <v>578</v>
       </c>
+      <c r="C86" s="37" t="s">
+        <v>577</v>
+      </c>
       <c r="D86" t="s">
         <v>577</v>
       </c>
@@ -8659,6 +8692,9 @@
       <c r="B89" t="s">
         <v>584</v>
       </c>
+      <c r="C89" s="37" t="s">
+        <v>583</v>
+      </c>
       <c r="D89" t="s">
         <v>583</v>
       </c>
@@ -8710,6 +8746,9 @@
       <c r="B91" t="s">
         <v>590</v>
       </c>
+      <c r="C91" s="37" t="s">
+        <v>587</v>
+      </c>
       <c r="D91" t="s">
         <v>587</v>
       </c>
@@ -8761,6 +8800,9 @@
       <c r="B93" t="s">
         <v>576</v>
       </c>
+      <c r="C93" s="37" t="s">
+        <v>574</v>
+      </c>
       <c r="D93" t="s">
         <v>574</v>
       </c>
@@ -8812,7 +8854,9 @@
       <c r="B95" t="s">
         <v>561</v>
       </c>
-      <c r="C95"/>
+      <c r="C95" s="37" t="s">
+        <v>562</v>
+      </c>
       <c r="D95" t="s">
         <v>562</v>
       </c>

--- a/doc/template_0_2_0.xlsx
+++ b/doc/template_0_2_0.xlsx
@@ -5938,9 +5938,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z96"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C95" sqref="C95"/>
+      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5950,16 +5950,19 @@
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
     <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.44140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="8.77734375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="13.77734375" style="5" customWidth="1"/>
     <col min="11" max="11" width="7.109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14" max="15" width="7.77734375" style="1" customWidth="1"/>
-    <col min="16" max="19" width="11.44140625" style="1"/>
+    <col min="14" max="14" width="7.77734375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1" customWidth="1"/>
+    <col min="16" max="17" width="11.44140625" style="1"/>
+    <col min="18" max="18" width="13.5546875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="11.44140625" style="1"/>
     <col min="20" max="20" width="46.109375" style="1" customWidth="1"/>
     <col min="21" max="23" width="11.44140625" style="1"/>
     <col min="24" max="24" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
@@ -5990,7 +5993,7 @@
         <v>502</v>
       </c>
       <c r="Q1" s="28"/>
-      <c r="R1" s="6"/>
+      <c r="R1" s="28"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
       <c r="U1" s="39" t="s">

--- a/doc/template_0_2_0.xlsx
+++ b/doc/template_0_2_0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-33540" yWindow="0" windowWidth="23256" windowHeight="5700" tabRatio="562" activeTab="2"/>
+    <workbookView xWindow="-12" yWindow="-12" windowWidth="10920" windowHeight="9636" tabRatio="562" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instructions" sheetId="9" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2558" uniqueCount="682">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2251" uniqueCount="659">
   <si>
     <t>type</t>
   </si>
@@ -1551,36 +1551,6 @@
     <t>Discrete Weights</t>
   </si>
   <si>
-    <t>Shift Occupancy Schedule Profile Time</t>
-  </si>
-  <si>
-    <t>Shift Clg setp Schedule Profile Time</t>
-  </si>
-  <si>
-    <t>Shift Htg Setp Schedule Profile Time</t>
-  </si>
-  <si>
-    <t>Shift Ltg Schedule Profile Time</t>
-  </si>
-  <si>
-    <t>Shift Equip Schedule Profile Time</t>
-  </si>
-  <si>
-    <t>Large Office Bldg Occ</t>
-  </si>
-  <si>
-    <t>Large Office ClgSetp</t>
-  </si>
-  <si>
-    <t>Large Office HtgSetp</t>
-  </si>
-  <si>
-    <t>Large Office Bldg Light</t>
-  </si>
-  <si>
-    <t>Large Office Bldg Equip</t>
-  </si>
-  <si>
     <t>Set Boiler Thermal Efficiency</t>
   </si>
   <si>
@@ -1647,9 +1617,6 @@
     <t>|0,1,2,3,4,standards_display_names[0]|</t>
   </si>
   <si>
-    <t>*All boilers*</t>
-  </si>
-  <si>
     <t>Set Water Heater Efficiency, Heat Loss, and Peak Water Flow Rate</t>
   </si>
   <si>
@@ -1698,45 +1665,6 @@
     <t>new_user</t>
   </si>
   <si>
-    <t>FixedDryBulb</t>
-  </si>
-  <si>
-    <t>|FixedDryBulb|</t>
-  </si>
-  <si>
-    <t>Shift Schedule Profiles Forward  Occupancy</t>
-  </si>
-  <si>
-    <t>Shift Schedule Profiles Forward Clg</t>
-  </si>
-  <si>
-    <t>Shift Schedule Profiles Forward Htg</t>
-  </si>
-  <si>
-    <t>Shift Schedule Profiles Forward Ltg</t>
-  </si>
-  <si>
-    <t>Shift Schedule Profiles Forward Equip</t>
-  </si>
-  <si>
-    <t>Modify EnergyPlus Fan Varaible Volume Objects</t>
-  </si>
-  <si>
-    <t>ModifyEnergyPlusFanVariableVolumeObjects</t>
-  </si>
-  <si>
-    <t>Pressure Rise (Pa).</t>
-  </si>
-  <si>
-    <t>pressureRise</t>
-  </si>
-  <si>
-    <t>Allow both increase and decrease in R-value to reach requested target?</t>
-  </si>
-  <si>
-    <t>allow_reduction</t>
-  </si>
-  <si>
     <t>SetChillerCOP</t>
   </si>
   <si>
@@ -1809,9 +1737,6 @@
     <t>Set Hot Water Loop Temperature</t>
   </si>
   <si>
-    <t>Total Natual Gas</t>
-  </si>
-  <si>
     <t>total_natural_gas</t>
   </si>
   <si>
@@ -1845,9 +1770,180 @@
     <t>run_openstudio_workflow_monthly.rb</t>
   </si>
   <si>
+    <t>delta_x</t>
+  </si>
+  <si>
+    <t>objective</t>
+  </si>
+  <si>
+    <t>function group</t>
+  </si>
+  <si>
+    <t>Measure Class Name</t>
+  </si>
+  <si>
+    <t>Measure Directory Name</t>
+  </si>
+  <si>
+    <t>0.2.0</t>
+  </si>
+  <si>
+    <t>1.3.1</t>
+  </si>
+  <si>
+    <t>AnalysisType</t>
+  </si>
+  <si>
+    <t>batch_run</t>
+  </si>
+  <si>
+    <t>nsga_nrel</t>
+  </si>
+  <si>
+    <t>rgenoud</t>
+  </si>
+  <si>
+    <t>preflight</t>
+  </si>
+  <si>
+    <t>sequential_search</t>
+  </si>
+  <si>
+    <t>TrueFalse</t>
+  </si>
+  <si>
+    <t>Workflow</t>
+  </si>
+  <si>
+    <t>run_openstudio_workflow.rb</t>
+  </si>
+  <si>
+    <t>Name goes here</t>
+  </si>
+  <si>
+    <t>Analysis Cluster Name</t>
+  </si>
+  <si>
+    <t>Optim</t>
+  </si>
+  <si>
+    <t>factr</t>
+  </si>
+  <si>
+    <t>maxit</t>
+  </si>
+  <si>
+    <t>Rgenoud</t>
+  </si>
+  <si>
+    <t>waitGenerations</t>
+  </si>
+  <si>
+    <t>popSize</t>
+  </si>
+  <si>
+    <t>solutionTolerance</t>
+  </si>
+  <si>
+    <t>Nsga</t>
+  </si>
+  <si>
+    <t>Generations</t>
+  </si>
+  <si>
+    <t>cprob</t>
+  </si>
+  <si>
+    <t>XoverDistIdx</t>
+  </si>
+  <si>
+    <t>MuDistIdx</t>
+  </si>
+  <si>
+    <t>mprob</t>
+  </si>
+  <si>
+    <t>SensitivityType</t>
+  </si>
+  <si>
+    <t>Sample Method</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>individual_variables / all_variables</t>
+  </si>
+  <si>
+    <t>allowed values / ranges</t>
+  </si>
+  <si>
+    <t>Lp norm power</t>
+  </si>
+  <si>
+    <t>Maximum number of iterations</t>
+  </si>
+  <si>
+    <t>Tolerance on delta_F</t>
+  </si>
+  <si>
+    <t>tolerance on the projected gradient</t>
+  </si>
+  <si>
+    <t>epsilon in gradient calculation</t>
+  </si>
+  <si>
+    <t>Number of generations</t>
+  </si>
+  <si>
+    <t>Size of initial population</t>
+  </si>
+  <si>
+    <t>bfgsburnin</t>
+  </si>
+  <si>
+    <t>The number of generations which are run before the BFGS is ﬁrst used</t>
+  </si>
+  <si>
+    <t>Numbers within solutionTolerance are considered equal</t>
+  </si>
+  <si>
+    <t>If no improvement in waitGenerations of generations, then exit</t>
+  </si>
+  <si>
+    <t>Crossover probability [0,1]</t>
+  </si>
+  <si>
+    <t>Mutation probability [0,1]</t>
+  </si>
+  <si>
+    <t>Crossover Distribution Index (large values give higher probabilities of offspring close to parent)</t>
+  </si>
+  <si>
+    <t>Mutation Distribution Index (large values give higher probabilities of offspring close to parent)</t>
+  </si>
+  <si>
+    <t>../seeds/11122_LargeOfficeOSM_AirCooledChiller.osm</t>
+  </si>
+  <si>
+    <t>large office</t>
+  </si>
+  <si>
+    <t>positive integer (if individual, total simulations is this times each variable)</t>
+  </si>
+  <si>
+    <t>Total Natural Gas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Change Defaults </t>
+  </si>
+  <si>
     <t>cooling_electricity_jan</t>
   </si>
   <si>
+    <t>J</t>
+  </si>
+  <si>
     <t>cooling_electricity_feb</t>
   </si>
   <si>
@@ -1915,171 +2011,6 @@
   </si>
   <si>
     <t>heating_gas_dec</t>
-  </si>
-  <si>
-    <t>J</t>
-  </si>
-  <si>
-    <t>delta_x</t>
-  </si>
-  <si>
-    <t>../seeds/medium_office.osm</t>
-  </si>
-  <si>
-    <t>medium_office</t>
-  </si>
-  <si>
-    <t>objective</t>
-  </si>
-  <si>
-    <t>function group</t>
-  </si>
-  <si>
-    <t>Measure Class Name</t>
-  </si>
-  <si>
-    <t>Measure Directory Name</t>
-  </si>
-  <si>
-    <t>0.2.0</t>
-  </si>
-  <si>
-    <t>1.3.1</t>
-  </si>
-  <si>
-    <t>AnalysisType</t>
-  </si>
-  <si>
-    <t>batch_run</t>
-  </si>
-  <si>
-    <t>nsga_nrel</t>
-  </si>
-  <si>
-    <t>rgenoud</t>
-  </si>
-  <si>
-    <t>preflight</t>
-  </si>
-  <si>
-    <t>sequential_search</t>
-  </si>
-  <si>
-    <t>TrueFalse</t>
-  </si>
-  <si>
-    <t>Workflow</t>
-  </si>
-  <si>
-    <t>run_openstudio_workflow.rb</t>
-  </si>
-  <si>
-    <t>Name goes here</t>
-  </si>
-  <si>
-    <t>Analysis Cluster Name</t>
-  </si>
-  <si>
-    <t>Optim</t>
-  </si>
-  <si>
-    <t>factr</t>
-  </si>
-  <si>
-    <t>maxit</t>
-  </si>
-  <si>
-    <t>Rgenoud</t>
-  </si>
-  <si>
-    <t>waitGenerations</t>
-  </si>
-  <si>
-    <t>popSize</t>
-  </si>
-  <si>
-    <t>solutionTolerance</t>
-  </si>
-  <si>
-    <t>Nsga</t>
-  </si>
-  <si>
-    <t>Generations</t>
-  </si>
-  <si>
-    <t>cprob</t>
-  </si>
-  <si>
-    <t>XoverDistIdx</t>
-  </si>
-  <si>
-    <t>MuDistIdx</t>
-  </si>
-  <si>
-    <t>mprob</t>
-  </si>
-  <si>
-    <t>SensitivityType</t>
-  </si>
-  <si>
-    <t>Sample Method</t>
-  </si>
-  <si>
-    <t>Simulation</t>
-  </si>
-  <si>
-    <t>individual_variables / all_variables</t>
-  </si>
-  <si>
-    <t>allowed values / ranges</t>
-  </si>
-  <si>
-    <t>Lp norm power</t>
-  </si>
-  <si>
-    <t>Maximum number of iterations</t>
-  </si>
-  <si>
-    <t>Tolerance on delta_F</t>
-  </si>
-  <si>
-    <t>tolerance on the projected gradient</t>
-  </si>
-  <si>
-    <t>epsilon in gradient calculation</t>
-  </si>
-  <si>
-    <t>Number of generations</t>
-  </si>
-  <si>
-    <t>Size of initial population</t>
-  </si>
-  <si>
-    <t>bfgsburnin</t>
-  </si>
-  <si>
-    <t>The number of generations which are run before the BFGS is ﬁrst used</t>
-  </si>
-  <si>
-    <t>Numbers within solutionTolerance are considered equal</t>
-  </si>
-  <si>
-    <t>If no improvement in waitGenerations of generations, then exit</t>
-  </si>
-  <si>
-    <t>Crossover probability [0,1]</t>
-  </si>
-  <si>
-    <t>Mutation probability [0,1]</t>
-  </si>
-  <si>
-    <t>Crossover Distribution Index (large values give higher probabilities of offspring close to parent)</t>
-  </si>
-  <si>
-    <t>Mutation Distribution Index (large values give higher probabilities of offspring close to parent)</t>
-  </si>
-  <si>
-    <t>positive integer (if individual, total simulations is this times each variable)</t>
   </si>
 </sst>
 </file>
@@ -2146,7 +2077,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2201,6 +2132,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -3608,7 +3545,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -3664,7 +3601,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3688,9 +3624,16 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1395">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -5394,7 +5337,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.77734375" customWidth="1"/>
+    <col min="1" max="1" width="50.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
@@ -5422,23 +5365,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E43"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="125" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.77734375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="29.33203125" style="33" customWidth="1"/>
+    <col min="1" max="1" width="25.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="29.33203125" style="32" customWidth="1"/>
     <col min="3" max="3" width="32.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31.77734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="31.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="47" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.77734375" style="1"/>
+    <col min="6" max="16384" width="10.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="22"/>
-      <c r="B1" s="35"/>
+      <c r="B1" s="34"/>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
       <c r="E1" s="23" t="s">
@@ -5449,7 +5392,7 @@
       <c r="A2" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="B2" s="34"/>
+      <c r="B2" s="33"/>
       <c r="C2" s="14"/>
       <c r="D2" s="14"/>
       <c r="E2" s="14"/>
@@ -5458,30 +5401,30 @@
       <c r="A3" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="B3" s="33" t="s">
-        <v>635</v>
+      <c r="B3" s="32" t="s">
+        <v>583</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="B4" s="32" t="s">
-        <v>553</v>
+      <c r="B4" s="31" t="s">
+        <v>542</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>477</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>494</v>
       </c>
-      <c r="B5" s="32" t="s">
-        <v>636</v>
+      <c r="B5" s="31" t="s">
+        <v>584</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>495</v>
@@ -5491,8 +5434,8 @@
       <c r="A6" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="B6" s="32" t="s">
-        <v>647</v>
+      <c r="B6" s="31" t="s">
+        <v>595</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>499</v>
@@ -5502,7 +5445,7 @@
       <c r="A7" s="1" t="s">
         <v>457</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="31" t="s">
         <v>447</v>
       </c>
       <c r="C7" s="3" t="str">
@@ -5517,11 +5460,11 @@
         <v>459</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="28.95" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>458</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="B8" s="31" t="s">
         <v>448</v>
       </c>
       <c r="C8" s="3" t="str">
@@ -5540,7 +5483,7 @@
       <c r="A9" s="1" t="s">
         <v>478</v>
       </c>
-      <c r="B9" s="32">
+      <c r="B9" s="31">
         <v>2</v>
       </c>
       <c r="C9" s="3"/>
@@ -5553,7 +5496,7 @@
       <c r="A11" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B11" s="34"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="12"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
@@ -5562,8 +5505,8 @@
       <c r="A12" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="32" t="s">
-        <v>646</v>
+      <c r="B12" s="31" t="s">
+        <v>594</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>498</v>
@@ -5573,7 +5516,7 @@
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="32" t="s">
+      <c r="B13" s="31" t="s">
         <v>469</v>
       </c>
       <c r="E13" s="1" t="s">
@@ -5584,7 +5527,7 @@
       <c r="A14" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="31" t="s">
         <v>470</v>
       </c>
     </row>
@@ -5592,7 +5535,7 @@
       <c r="A15" s="1" t="s">
         <v>487</v>
       </c>
-      <c r="B15" s="32" t="b">
+      <c r="B15" s="31" t="b">
         <v>1</v>
       </c>
       <c r="E15" s="1" t="s">
@@ -5603,7 +5546,7 @@
       <c r="A16" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B16" s="31" t="b">
+      <c r="B16" s="30" t="b">
         <v>1</v>
       </c>
       <c r="E16" s="1" t="s">
@@ -5614,7 +5557,7 @@
       <c r="A17" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="31" t="s">
         <v>490</v>
       </c>
       <c r="E17" s="1" t="s">
@@ -5625,21 +5568,21 @@
       <c r="A18" s="1" t="s">
         <v>491</v>
       </c>
-      <c r="B18" s="32" t="s">
-        <v>602</v>
+      <c r="B18" s="31" t="s">
+        <v>577</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>445</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="32"/>
+      <c r="B19" s="31"/>
     </row>
     <row r="20" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A20" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="34"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="12"/>
       <c r="D20" s="12"/>
       <c r="E20" s="14" t="s">
@@ -5650,192 +5593,205 @@
       <c r="A21" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B21" s="32" t="s">
-        <v>640</v>
+      <c r="B21" s="31" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="38"/>
-    </row>
-    <row r="23" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="33"/>
+      <c r="A22" s="37"/>
+    </row>
+    <row r="23" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="32"/>
     </row>
     <row r="24" spans="1:5" s="2" customFormat="1" ht="72" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>467</v>
       </c>
-      <c r="B24" s="34"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="12" t="s">
-        <v>665</v>
-      </c>
-      <c r="D24" s="12"/>
+        <v>613</v>
+      </c>
+      <c r="D24" s="40" t="s">
+        <v>633</v>
+      </c>
       <c r="E24" s="14" t="s">
         <v>475</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="38" t="str">
+      <c r="A25" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
-        <v>popSize</v>
-      </c>
-      <c r="B25" s="32">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
+        <v>Sample Method</v>
+      </c>
+      <c r="B25" s="31" t="str">
+        <f>IF(D25&lt;&gt;"",D25,IF(LEN(INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1)))</f>
+        <v>individual_variables</v>
+      </c>
+      <c r="C25" s="32" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
+        <v>individual_variables / all_variables</v>
+      </c>
+      <c r="D25" s="41"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="37" t="str">
+        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
+        <v>Number of Samples</v>
+      </c>
+      <c r="B26" s="31">
+        <f>IF(D26&lt;&gt;"",D26,IF(LEN(INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1)))</f>
         <v>30</v>
       </c>
-      <c r="C25" s="33" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,1,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
-        <v>Size of initial population</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="38" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
-        <v>Generations</v>
-      </c>
-      <c r="B26" s="32">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v>5</v>
-      </c>
-      <c r="C26" s="33" t="str">
+      <c r="C26" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,2,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
-        <v>Number of generations</v>
-      </c>
+        <v>positive integer (if individual, total simulations is this times each variable)</v>
+      </c>
+      <c r="D26" s="41"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="38" t="str">
+      <c r="A27" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
-        <v>waitGenerations</v>
-      </c>
-      <c r="B27" s="32">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v>2</v>
-      </c>
-      <c r="C27" s="33" t="str">
+        <v/>
+      </c>
+      <c r="B27" s="31" t="str">
+        <f>IF(D27&lt;&gt;"",D27,IF(LEN(INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C27" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,3,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
-        <v>If no improvement in waitGenerations of generations, then exit</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="38" t="str">
+        <v/>
+      </c>
+      <c r="D27" s="41"/>
+    </row>
+    <row r="28" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
-        <v>bfgsburnin</v>
-      </c>
-      <c r="B28" s="32">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v>2</v>
-      </c>
-      <c r="C28" s="33" t="str">
+        <v/>
+      </c>
+      <c r="B28" s="31" t="str">
+        <f>IF(D28&lt;&gt;"",D28,IF(LEN(INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C28" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,4,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
-        <v>The number of generations which are run before the BFGS is ﬁrst used</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="38" t="str">
+        <v/>
+      </c>
+      <c r="D28" s="41"/>
+    </row>
+    <row r="29" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
-        <v>solutionTolerance</v>
-      </c>
-      <c r="B29" s="32">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v>0.01</v>
-      </c>
-      <c r="C29" s="33" t="str">
+        <v/>
+      </c>
+      <c r="B29" s="31" t="str">
+        <f>IF(D29&lt;&gt;"",D29,IF(LEN(INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C29" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,5,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
-        <v>Numbers within solutionTolerance are considered equal</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="38" t="str">
+        <v/>
+      </c>
+      <c r="D29" s="41"/>
+    </row>
+    <row r="30" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
-        <v>epsilonGradient</v>
-      </c>
-      <c r="B30" s="32">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v>0.01</v>
-      </c>
-      <c r="C30" s="33" t="str">
+        <v/>
+      </c>
+      <c r="B30" s="31" t="str">
+        <f>IF(D30&lt;&gt;"",D30,IF(LEN(INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C30" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,6,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
-        <v>epsilon in gradient calculation</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="38" t="str">
+        <v/>
+      </c>
+      <c r="D30" s="41"/>
+    </row>
+    <row r="31" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
-        <v>pgtol</v>
-      </c>
-      <c r="B31" s="32">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v>0.01</v>
-      </c>
-      <c r="C31" s="33" t="str">
+        <v/>
+      </c>
+      <c r="B31" s="31" t="str">
+        <f>IF(D31&lt;&gt;"",D31,IF(LEN(INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C31" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,7,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
-        <v>tolerance on the projected gradient</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="38" t="str">
+        <v/>
+      </c>
+      <c r="D31" s="41"/>
+    </row>
+    <row r="32" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
-        <v>factr</v>
-      </c>
-      <c r="B32" s="32">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v>45036000000000</v>
-      </c>
-      <c r="C32" s="33" t="str">
+        <v/>
+      </c>
+      <c r="B32" s="31" t="str">
+        <f>IF(D32&lt;&gt;"",D32,IF(LEN(INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C32" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,8,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
-        <v>Tolerance on delta_F</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="38" t="str">
+        <v/>
+      </c>
+      <c r="D32" s="41"/>
+    </row>
+    <row r="33" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
-        <v>maxit</v>
-      </c>
-      <c r="B33" s="32">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v>100</v>
-      </c>
-      <c r="C33" s="33" t="str">
+        <v/>
+      </c>
+      <c r="B33" s="31" t="str">
+        <f>IF(D33&lt;&gt;"",D33,IF(LEN(INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C33" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,9,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
-        <v>Maximum number of iterations</v>
-      </c>
+        <v/>
+      </c>
+      <c r="D33" s="41"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="str">
+      <c r="A34" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
-        <v>normType</v>
-      </c>
-      <c r="B34" s="32" t="str">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v>minkowski</v>
-      </c>
-      <c r="C34" s="33" t="str">
+        <v/>
+      </c>
+      <c r="B34" s="31" t="str">
+        <f>IF(D34&lt;&gt;"",D34,IF(LEN(INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C34" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$22,10,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
         <v/>
       </c>
-    </row>
-    <row r="35" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="38" t="str">
+      <c r="D34" s="41"/>
+    </row>
+    <row r="35" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="37" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))=0,"",INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-2))</f>
-        <v>pPower</v>
-      </c>
-      <c r="B35" s="32">
-        <f>IF(LEN(INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))</f>
-        <v>2</v>
-      </c>
-      <c r="C35" s="33" t="str">
+        <v/>
+      </c>
+      <c r="B35" s="31" t="str">
+        <f>IF(D35&lt;&gt;"",D35,IF(LEN(INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1))=0,"",INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)-1)))</f>
+        <v/>
+      </c>
+      <c r="C35" s="32" t="str">
         <f>IF(LEN(INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))=0,"",INDEX(Lookups!$C$13:$Z$23,11,3*MATCH(Setup!$B21,Lookups!$A$13:$A$19,0)))</f>
-        <v>Lp norm power</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="38" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B36" s="32"/>
-      <c r="C36" s="33"/>
+        <v/>
+      </c>
+      <c r="D35" s="41"/>
+    </row>
+    <row r="36" spans="1:5" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="31"/>
+      <c r="C36" s="32"/>
     </row>
     <row r="37" spans="1:5" s="2" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="33" t="s">
         <v>41</v>
       </c>
       <c r="C37" s="12" t="s">
@@ -5848,7 +5804,7 @@
       <c r="A38" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B38" s="32" t="s">
+      <c r="B38" s="31" t="s">
         <v>468</v>
       </c>
     </row>
@@ -5856,7 +5812,7 @@
       <c r="A40" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B40" s="34" t="s">
+      <c r="B40" s="33" t="s">
         <v>473</v>
       </c>
       <c r="C40" s="12" t="s">
@@ -5873,7 +5829,7 @@
       <c r="A41" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="32" t="s">
         <v>630</v>
       </c>
       <c r="C41" s="1" t="s">
@@ -5890,7 +5846,7 @@
       <c r="A43" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="33" t="s">
         <v>37</v>
       </c>
       <c r="C43" s="12" t="s">
@@ -5936,11 +5892,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z96"/>
+  <dimension ref="A1:Z97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R1" sqref="R1"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5950,18 +5905,17 @@
     <col min="3" max="3" width="47" style="1" customWidth="1"/>
     <col min="4" max="4" width="39.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="24.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.44140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.44140625" style="5" customWidth="1"/>
-    <col min="10" max="10" width="13.77734375" style="5" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="5" customWidth="1"/>
     <col min="11" max="11" width="7.109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="8.109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="7.77734375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="9" style="1" customWidth="1"/>
+    <col min="14" max="15" width="7.6640625" style="1" customWidth="1"/>
     <col min="16" max="17" width="11.44140625" style="1"/>
-    <col min="18" max="18" width="13.5546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.21875" style="1" customWidth="1"/>
     <col min="19" max="19" width="11.44140625" style="1"/>
     <col min="20" max="20" width="46.109375" style="1" customWidth="1"/>
     <col min="21" max="23" width="11.44140625" style="1"/>
@@ -5989,21 +5943,21 @@
       <c r="M1" s="26"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
-      <c r="P1" s="27" t="s">
+      <c r="P1" s="39" t="s">
         <v>502</v>
       </c>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
       <c r="S1" s="6"/>
       <c r="T1" s="6"/>
-      <c r="U1" s="39" t="s">
+      <c r="U1" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="39"/>
-      <c r="W1" s="39"/>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
+      <c r="V1" s="42"/>
+      <c r="W1" s="42"/>
+      <c r="X1" s="42"/>
+      <c r="Y1" s="42"/>
+      <c r="Z1" s="42"/>
     </row>
     <row r="2" spans="1:26" s="9" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
@@ -6013,10 +5967,10 @@
         <v>40</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>634</v>
+        <v>582</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>633</v>
+        <v>581</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10"/>
@@ -6065,7 +6019,7 @@
         <v>9</v>
       </c>
       <c r="O3" s="18" t="s">
-        <v>628</v>
+        <v>578</v>
       </c>
       <c r="P3" s="18" t="s">
         <v>503</v>
@@ -6098,32 +6052,32 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="1:26" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="37" t="b">
+        <v>0</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="37" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="1:26" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="B5" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="F5" s="37" t="s">
+        <v>2</v>
+      </c>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
@@ -6131,26 +6085,27 @@
       <c r="O5" s="3"/>
       <c r="Q5" s="4"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A6" t="b">
+    <row r="6" spans="1:26" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="F6"/>
-      <c r="G6"/>
-      <c r="H6"/>
-      <c r="I6"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="5"/>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
@@ -6158,29 +6113,29 @@
       <c r="O6" s="3"/>
       <c r="Q6" s="4"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A7"/>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7" t="s">
+    <row r="7" spans="1:26" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="F7" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="F7" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="H7"/>
-      <c r="I7" t="s">
+      <c r="H7" s="36"/>
+      <c r="I7" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="J7" t="s">
+      <c r="J7" s="36" t="s">
         <v>89</v>
       </c>
       <c r="K7" s="3"/>
@@ -6190,69 +6145,71 @@
       <c r="O7" s="3"/>
       <c r="Q7" s="4"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A8"/>
-      <c r="B8" t="s">
+    <row r="8" spans="1:26" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C8"/>
-      <c r="D8" t="s">
+      <c r="C8" s="36"/>
+      <c r="D8" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F8" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G8" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="H8"/>
-      <c r="I8">
-        <v>0</v>
-      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36">
+        <v>0</v>
+      </c>
+      <c r="J8" s="5"/>
       <c r="K8" s="3">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="L8" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="M8" s="3">
         <v>-1</v>
       </c>
       <c r="N8" s="3">
         <f>(L8-K8)/6</f>
-        <v>6.666666666666667</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="O8" s="3"/>
       <c r="Q8" s="4"/>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A9"/>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9"/>
+    <row r="9" spans="1:26" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A9" s="36"/>
+      <c r="B9" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="36"/>
       <c r="D9" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="F9" t="s">
-        <v>2</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="F9" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="H9"/>
-      <c r="I9">
-        <v>0</v>
-      </c>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
@@ -6260,28 +6217,29 @@
       <c r="O9" s="3"/>
       <c r="Q9" s="4"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A10"/>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10"/>
-      <c r="D10" t="s">
+    <row r="10" spans="1:26" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A10" s="36"/>
+      <c r="B10" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36" t="s">
         <v>55</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="36" t="s">
         <v>56</v>
       </c>
-      <c r="F10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="F10" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="H10"/>
-      <c r="I10">
-        <v>0</v>
-      </c>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3"/>
@@ -6289,28 +6247,29 @@
       <c r="O10" s="3"/>
       <c r="Q10" s="4"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A11"/>
-      <c r="B11" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11" t="s">
+    <row r="11" spans="1:26" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A11" s="36"/>
+      <c r="B11" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="36" t="s">
         <v>58</v>
       </c>
-      <c r="F11" t="s">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F11" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G11" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="H11"/>
-      <c r="I11">
-        <v>0</v>
-      </c>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -6318,28 +6277,29 @@
       <c r="O11" s="3"/>
       <c r="Q11" s="4"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A12"/>
-      <c r="B12" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12" t="s">
+    <row r="12" spans="1:26" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A12" s="36"/>
+      <c r="B12" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36" t="s">
         <v>59</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="36" t="s">
         <v>60</v>
       </c>
-      <c r="F12" t="s">
-        <v>2</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="F12" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="H12"/>
-      <c r="I12" t="b">
+      <c r="H12" s="36"/>
+      <c r="I12" s="36" t="b">
         <v>1</v>
       </c>
+      <c r="J12" s="5"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3"/>
@@ -6347,28 +6307,29 @@
       <c r="O12" s="3"/>
       <c r="Q12" s="4"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A13"/>
-      <c r="B13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13" t="s">
+    <row r="13" spans="1:26" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="36"/>
+      <c r="B13" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36" t="s">
         <v>61</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="F13" t="s">
-        <v>2</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="F13" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="H13"/>
-      <c r="I13">
+      <c r="H13" s="36"/>
+      <c r="I13" s="36">
         <v>15</v>
       </c>
+      <c r="J13" s="5"/>
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3"/>
@@ -6376,28 +6337,29 @@
       <c r="O13" s="3"/>
       <c r="Q13" s="4"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A14"/>
-      <c r="B14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14"/>
-      <c r="D14" t="s">
+    <row r="14" spans="1:26" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F14" t="s">
-        <v>2</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="F14" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="H14"/>
-      <c r="I14">
-        <v>0</v>
-      </c>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
       <c r="M14" s="3"/>
@@ -6405,28 +6367,29 @@
       <c r="O14" s="3"/>
       <c r="Q14" s="4"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
-      <c r="A15"/>
-      <c r="B15" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15" t="s">
+    <row r="15" spans="1:26" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="F15" t="s">
-        <v>2</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="F15" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="H15"/>
-      <c r="I15">
+      <c r="H15" s="36"/>
+      <c r="I15" s="36">
         <v>1</v>
       </c>
+      <c r="J15" s="5"/>
       <c r="K15" s="3"/>
       <c r="L15" s="3"/>
       <c r="M15" s="3"/>
@@ -6434,7 +6397,7 @@
       <c r="O15" s="3"/>
       <c r="Q15" s="4"/>
     </row>
-    <row r="16" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="b">
         <v>1</v>
       </c>
@@ -6462,7 +6425,7 @@
       <c r="O16" s="3"/>
       <c r="Q16" s="4"/>
     </row>
-    <row r="17" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="20" t="s">
         <v>23</v>
@@ -6494,7 +6457,7 @@
       <c r="O17" s="3"/>
       <c r="Q17" s="4"/>
     </row>
-    <row r="18" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="20"/>
       <c r="B18" s="20" t="s">
         <v>24</v>
@@ -6518,25 +6481,25 @@
       </c>
       <c r="J18" s="20"/>
       <c r="K18" s="3">
-        <v>-20</v>
+        <v>-40</v>
       </c>
       <c r="L18" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="M18" s="3">
         <v>0</v>
       </c>
       <c r="N18" s="3">
         <f>(L18-K18)/6</f>
-        <v>8.3333333333333339</v>
+        <v>13.333333333333334</v>
       </c>
       <c r="O18" s="3"/>
       <c r="Q18" s="4"/>
-      <c r="R18" s="1" t="s">
+      <c r="R18" s="37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="20"/>
       <c r="B19" s="20" t="s">
         <v>23</v>
@@ -6566,7 +6529,7 @@
       <c r="O19" s="3"/>
       <c r="Q19" s="4"/>
     </row>
-    <row r="20" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="20"/>
       <c r="B20" s="20" t="s">
         <v>23</v>
@@ -6596,7 +6559,7 @@
       <c r="O20" s="3"/>
       <c r="Q20" s="4"/>
     </row>
-    <row r="21" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="20"/>
       <c r="B21" s="20" t="s">
         <v>23</v>
@@ -6626,7 +6589,7 @@
       <c r="O21" s="3"/>
       <c r="Q21" s="4"/>
     </row>
-    <row r="22" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:18" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="20"/>
       <c r="B22" s="20" t="s">
         <v>23</v>
@@ -6656,7 +6619,7 @@
       <c r="O22" s="3"/>
       <c r="Q22" s="4"/>
     </row>
-    <row r="23" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:18" s="37" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="20"/>
       <c r="B23" s="20" t="s">
         <v>23</v>
@@ -6686,7 +6649,7 @@
       <c r="O23" s="3"/>
       <c r="Q23" s="4"/>
     </row>
-    <row r="24" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="20"/>
       <c r="B24" s="20" t="s">
         <v>23</v>
@@ -6716,7 +6679,7 @@
       <c r="O24" s="3"/>
       <c r="Q24" s="4"/>
     </row>
-    <row r="25" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:18" s="37" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="20"/>
       <c r="B25" s="20" t="s">
         <v>23</v>
@@ -6746,150 +6709,150 @@
       <c r="O25" s="3"/>
       <c r="Q25" s="4"/>
     </row>
-    <row r="26" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" t="b">
+    <row r="26" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="36" t="s">
         <v>74</v>
       </c>
-      <c r="P26" s="1"/>
-    </row>
-    <row r="27" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="P26" s="37"/>
+    </row>
+    <row r="27" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="36" t="s">
         <v>51</v>
       </c>
-      <c r="F27" t="s">
-        <v>2</v>
-      </c>
-      <c r="G27" t="s">
+      <c r="F27" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G27" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="J27" t="s">
+      <c r="J27" s="36" t="s">
         <v>89</v>
       </c>
-      <c r="P27" s="1"/>
-    </row>
-    <row r="28" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
+      <c r="P27" s="37"/>
+    </row>
+    <row r="28" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="36" t="s">
         <v>24</v>
       </c>
       <c r="D28" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F28" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G28" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="36">
         <v>0</v>
       </c>
       <c r="K28" s="3">
         <v>-100</v>
       </c>
       <c r="L28" s="3">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="M28" s="3">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="N28" s="3">
         <f>(L28-K28)/6</f>
-        <v>16.833333333333332</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="O28" s="3"/>
-      <c r="P28" s="1"/>
-      <c r="R28" s="1" t="s">
+      <c r="P28" s="37"/>
+      <c r="R28" s="37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D29" t="s">
+    <row r="29" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D29" s="36" t="s">
         <v>77</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="F29" t="s">
-        <v>2</v>
-      </c>
-      <c r="G29" t="s">
+      <c r="F29" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="I29">
-        <v>0</v>
-      </c>
-      <c r="P29" s="1"/>
-    </row>
-    <row r="30" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="I29" s="36">
+        <v>0</v>
+      </c>
+      <c r="P29" s="37"/>
+    </row>
+    <row r="30" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="36" t="s">
         <v>64</v>
       </c>
-      <c r="F30" t="s">
-        <v>2</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F30" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="P30" s="1"/>
-    </row>
-    <row r="31" spans="1:18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" t="s">
+      <c r="I30" s="36">
+        <v>0</v>
+      </c>
+      <c r="P30" s="37"/>
+    </row>
+    <row r="31" spans="1:18" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="F31" t="s">
-        <v>2</v>
-      </c>
-      <c r="G31" t="s">
+      <c r="F31" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G31" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="36">
         <v>1</v>
       </c>
-      <c r="P31" s="1"/>
-    </row>
-    <row r="32" spans="1:18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="P31" s="37"/>
+    </row>
+    <row r="32" spans="1:18" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="20" t="b">
         <v>1</v>
       </c>
@@ -6910,15 +6873,15 @@
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
       <c r="J32" s="20"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="1"/>
-      <c r="R32" s="1"/>
-    </row>
-    <row r="33" spans="1:18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K32" s="37"/>
+      <c r="L32" s="37"/>
+      <c r="M32" s="37"/>
+      <c r="N32" s="37"/>
+      <c r="O32" s="37"/>
+      <c r="P32" s="37"/>
+      <c r="R32" s="37"/>
+    </row>
+    <row r="33" spans="1:20" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="20"/>
       <c r="B33" s="20" t="s">
         <v>24</v>
@@ -6954,13 +6917,15 @@
         <f>(L33-K33)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O33" s="3"/>
-      <c r="P33" s="1"/>
-      <c r="R33" s="1" t="s">
+      <c r="O33" s="3">
+        <v>1</v>
+      </c>
+      <c r="P33" s="37"/>
+      <c r="R33" s="37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="34" spans="1:18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="20"/>
       <c r="B34" s="20" t="s">
         <v>24</v>
@@ -6996,13 +6961,15 @@
         <f>(L34-K34)/6</f>
         <v>0.66666666666666663</v>
       </c>
-      <c r="O34" s="3"/>
-      <c r="P34" s="1"/>
-      <c r="R34" s="1" t="s">
+      <c r="O34" s="3">
+        <v>1</v>
+      </c>
+      <c r="P34" s="37"/>
+      <c r="R34" s="37" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" s="36" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="20"/>
       <c r="B35" s="20" t="s">
         <v>23</v>
@@ -7025,1070 +6992,679 @@
         <v>0</v>
       </c>
       <c r="J35" s="20"/>
-      <c r="P35" s="1"/>
-    </row>
-    <row r="36" spans="1:18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A36" s="20" t="b">
+      <c r="P35" s="37"/>
+    </row>
+    <row r="36" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B36" s="20" t="s">
-        <v>335</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>336</v>
-      </c>
-      <c r="E36" s="20" t="s">
+      <c r="B36" s="36" t="s">
+        <v>560</v>
+      </c>
+      <c r="C36" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="D36" s="36" t="s">
+        <v>559</v>
+      </c>
+      <c r="E36" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="P36" s="1"/>
-    </row>
-    <row r="37" spans="1:18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G37" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="J37" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="P37" s="1"/>
-    </row>
-    <row r="38" spans="1:18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20" t="s">
+    </row>
+    <row r="37" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B37" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20" t="s">
-        <v>337</v>
-      </c>
-      <c r="E38" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="F38" s="20" t="s">
+      <c r="D37" s="36" t="s">
+        <v>561</v>
+      </c>
+      <c r="E37" s="36" t="s">
+        <v>562</v>
+      </c>
+      <c r="F37" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="G38" s="20" t="s">
+      <c r="G37" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20">
-        <v>0</v>
-      </c>
-      <c r="J38" s="20"/>
-      <c r="K38">
-        <v>-90</v>
-      </c>
-      <c r="L38">
-        <v>90</v>
-      </c>
-      <c r="M38" s="20">
-        <v>-1</v>
-      </c>
-      <c r="N38" s="3">
-        <f>(L38-K38)/6</f>
-        <v>30</v>
-      </c>
-      <c r="O38" s="3"/>
-      <c r="P38" s="1"/>
-      <c r="R38" s="1" t="s">
+      <c r="I37" s="36">
+        <v>44</v>
+      </c>
+      <c r="K37" s="36">
+        <v>42</v>
+      </c>
+      <c r="L37" s="36">
+        <v>46</v>
+      </c>
+      <c r="M37" s="36">
+        <v>44</v>
+      </c>
+      <c r="N37" s="3">
+        <f>(L37-K37)/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O37" s="3">
+        <v>1</v>
+      </c>
+      <c r="R37" s="37" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A39" s="20" t="b">
+    <row r="38" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="B39" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="E39" s="20" t="s">
+      <c r="B38" s="36" t="s">
+        <v>566</v>
+      </c>
+      <c r="C38" s="36" t="s">
+        <v>563</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>563</v>
+      </c>
+      <c r="E38" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="P39" s="1"/>
-    </row>
-    <row r="40" spans="1:18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A40" s="20"/>
-      <c r="B40" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="E40" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G40" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20" t="s">
-        <v>425</v>
-      </c>
-      <c r="J40" s="20" t="s">
-        <v>426</v>
-      </c>
-      <c r="P40" s="1"/>
-    </row>
-    <row r="41" spans="1:18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:20" s="36" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B39" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="D39" s="36" t="s">
+        <v>565</v>
+      </c>
+      <c r="E39" s="36" t="s">
+        <v>564</v>
+      </c>
+      <c r="F39" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="I39" s="36">
+        <v>120</v>
+      </c>
+      <c r="K39" s="36">
+        <v>118</v>
+      </c>
+      <c r="L39" s="36">
+        <v>122</v>
+      </c>
+      <c r="M39" s="36">
+        <v>120</v>
+      </c>
+      <c r="N39" s="3">
+        <f>(L39-K39)/6</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="O39" s="3">
+        <v>1</v>
+      </c>
+      <c r="R39" s="37" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" s="37" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+    </row>
+    <row r="41" spans="1:20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="20"/>
-      <c r="B41" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="B41" s="20"/>
       <c r="C41" s="20"/>
-      <c r="D41" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="E41" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G41" s="20" t="s">
-        <v>68</v>
-      </c>
+      <c r="D41" s="20"/>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
       <c r="H41" s="20"/>
-      <c r="I41" s="20" t="s">
-        <v>554</v>
-      </c>
-      <c r="J41" s="20" t="s">
-        <v>555</v>
-      </c>
-      <c r="P41" s="1"/>
-    </row>
-    <row r="42" spans="1:18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="20"/>
+      <c r="R41" s="1"/>
+    </row>
+    <row r="42" spans="1:20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="20"/>
-      <c r="B42" s="20" t="s">
-        <v>24</v>
-      </c>
+      <c r="B42" s="20"/>
       <c r="C42" s="20"/>
-      <c r="D42" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="E42" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G42" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="D42" s="20"/>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
       <c r="H42" s="20"/>
-      <c r="I42" s="20">
-        <v>79</v>
-      </c>
+      <c r="I42" s="20"/>
       <c r="J42" s="20"/>
-      <c r="K42">
-        <v>76</v>
-      </c>
-      <c r="L42">
-        <v>80</v>
-      </c>
-      <c r="M42" s="20">
-        <v>78</v>
-      </c>
-      <c r="N42" s="3">
-        <f>(L42-K42)/6</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O42" s="3"/>
-      <c r="P42" s="1"/>
-      <c r="R42" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="43" spans="1:18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K42" s="20"/>
+      <c r="L42" s="20"/>
+      <c r="O42" s="20"/>
+      <c r="P42" s="3"/>
+      <c r="Q42" s="3"/>
+      <c r="R42" s="1"/>
+      <c r="T42" s="1"/>
+    </row>
+    <row r="43" spans="1:20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="20"/>
-      <c r="B43" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="B43" s="20"/>
       <c r="C43" s="20"/>
-      <c r="D43" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G43" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="D43" s="20"/>
+      <c r="E43" s="20"/>
+      <c r="F43" s="20"/>
+      <c r="G43" s="20"/>
       <c r="H43" s="20"/>
-      <c r="I43" s="20">
-        <v>28</v>
-      </c>
+      <c r="I43" s="20"/>
       <c r="J43" s="20"/>
-      <c r="P43" s="1"/>
-    </row>
-    <row r="44" spans="1:18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K43" s="20"/>
+      <c r="L43" s="20"/>
+      <c r="R43" s="1"/>
+    </row>
+    <row r="44" spans="1:20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="20"/>
-      <c r="B44" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="B44" s="20"/>
       <c r="C44" s="20"/>
-      <c r="D44" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="E44" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G44" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
+      <c r="G44" s="20"/>
       <c r="H44" s="20"/>
-      <c r="I44" s="20">
-        <v>55</v>
-      </c>
+      <c r="I44" s="20"/>
       <c r="J44" s="20"/>
-      <c r="P44" s="1"/>
-    </row>
-    <row r="45" spans="1:18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K44" s="20"/>
+      <c r="L44" s="20"/>
+      <c r="R44" s="1"/>
+    </row>
+    <row r="45" spans="1:20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="20"/>
-      <c r="B45" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="B45" s="20"/>
       <c r="C45" s="20"/>
-      <c r="D45" s="20" t="s">
-        <v>234</v>
-      </c>
-      <c r="E45" s="20" t="s">
-        <v>235</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G45" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20"/>
+      <c r="G45" s="20"/>
       <c r="H45" s="20"/>
-      <c r="I45" s="20">
-        <v>-148</v>
-      </c>
+      <c r="I45" s="20"/>
       <c r="J45" s="20"/>
-      <c r="P45" s="1"/>
-    </row>
-    <row r="46" spans="1:18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K45" s="20"/>
+      <c r="L45" s="20"/>
+      <c r="R45" s="1"/>
+    </row>
+    <row r="46" spans="1:20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="20"/>
-      <c r="B46" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="B46" s="20"/>
       <c r="C46" s="20"/>
-      <c r="D46" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="E46" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G46" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="20"/>
       <c r="H46" s="20"/>
-      <c r="I46" s="20" t="b">
-        <v>0</v>
-      </c>
+      <c r="I46" s="20"/>
       <c r="J46" s="20"/>
-      <c r="P46" s="1"/>
-    </row>
-    <row r="47" spans="1:18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K46" s="20"/>
+      <c r="L46" s="20"/>
+      <c r="R46" s="1"/>
+    </row>
+    <row r="47" spans="1:20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
-      <c r="B47" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="B47" s="20"/>
       <c r="C47" s="20"/>
-      <c r="D47" s="20" t="s">
-        <v>236</v>
-      </c>
-      <c r="E47" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G47" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
       <c r="H47" s="20"/>
-      <c r="I47" s="20">
-        <v>0</v>
-      </c>
+      <c r="I47" s="20"/>
       <c r="J47" s="20"/>
-      <c r="P47" s="1"/>
-    </row>
-    <row r="48" spans="1:18" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K47" s="20"/>
+      <c r="L47" s="20"/>
+      <c r="R47" s="1"/>
+    </row>
+    <row r="48" spans="1:20" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
-      <c r="B48" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="B48" s="20"/>
       <c r="C48" s="20"/>
-      <c r="D48" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="E48" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G48" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
       <c r="H48" s="20"/>
-      <c r="I48" s="20">
-        <v>0</v>
-      </c>
+      <c r="I48" s="20"/>
       <c r="J48" s="20"/>
-      <c r="P48" s="1"/>
-    </row>
-    <row r="49" spans="1:21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K48" s="20"/>
+      <c r="L48" s="20"/>
+      <c r="R48" s="1"/>
+    </row>
+    <row r="49" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
-      <c r="B49" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="B49" s="20"/>
       <c r="C49" s="20"/>
-      <c r="D49" s="20" t="s">
-        <v>57</v>
-      </c>
-      <c r="E49" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G49" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
       <c r="H49" s="20"/>
-      <c r="I49" s="20">
-        <v>0</v>
-      </c>
+      <c r="I49" s="20"/>
       <c r="J49" s="20"/>
-      <c r="P49" s="1"/>
-    </row>
-    <row r="50" spans="1:21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K49" s="20"/>
+      <c r="L49" s="20"/>
+      <c r="R49" s="1"/>
+    </row>
+    <row r="50" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
-      <c r="B50" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="B50" s="20"/>
       <c r="C50" s="20"/>
-      <c r="D50" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="E50" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="F50" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G50" s="20" t="s">
-        <v>69</v>
-      </c>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
       <c r="H50" s="20"/>
-      <c r="I50" s="20" t="b">
-        <v>0</v>
-      </c>
+      <c r="I50" s="20"/>
       <c r="J50" s="20"/>
-      <c r="P50" s="1"/>
-    </row>
-    <row r="51" spans="1:21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K50" s="20"/>
+      <c r="L50" s="20"/>
+      <c r="R50" s="1"/>
+    </row>
+    <row r="51" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="20"/>
-      <c r="B51" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="B51" s="20"/>
       <c r="C51" s="20"/>
-      <c r="D51" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G51" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
       <c r="H51" s="20"/>
-      <c r="I51" s="20">
-        <v>20</v>
-      </c>
+      <c r="I51" s="20"/>
       <c r="J51" s="20"/>
-      <c r="P51" s="1"/>
-    </row>
-    <row r="52" spans="1:21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K51" s="20"/>
+      <c r="L51" s="20"/>
+      <c r="R51" s="1"/>
+    </row>
+    <row r="52" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
-      <c r="B52" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="B52" s="20"/>
       <c r="C52" s="20"/>
-      <c r="D52" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="E52" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G52" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
       <c r="H52" s="20"/>
-      <c r="I52" s="20">
-        <v>0</v>
-      </c>
+      <c r="I52" s="20"/>
       <c r="J52" s="20"/>
-      <c r="P52" s="1"/>
-    </row>
-    <row r="53" spans="1:21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K52" s="20"/>
+      <c r="L52" s="20"/>
+      <c r="R52" s="1"/>
+    </row>
+    <row r="53" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
-      <c r="B53" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="B53" s="20"/>
       <c r="C53" s="20"/>
-      <c r="D53" s="20" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G53" s="20" t="s">
-        <v>71</v>
-      </c>
+      <c r="D53" s="20"/>
+      <c r="E53" s="20"/>
+      <c r="F53" s="20"/>
+      <c r="G53" s="20"/>
       <c r="H53" s="20"/>
-      <c r="I53" s="20">
-        <v>1</v>
-      </c>
+      <c r="I53" s="20"/>
       <c r="J53" s="20"/>
-      <c r="P53" s="1"/>
-    </row>
-    <row r="54" spans="1:21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A54" t="b">
-        <v>0</v>
-      </c>
-      <c r="B54" s="20" t="s">
-        <v>505</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="K53" s="20"/>
+      <c r="L53" s="20"/>
+      <c r="R53" s="1"/>
+    </row>
+    <row r="54" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B54" s="20"/>
+      <c r="C54" s="20"/>
+      <c r="D54" s="20"/>
+      <c r="E54" s="20"/>
       <c r="F54" s="20"/>
       <c r="G54" s="20"/>
       <c r="H54" s="20"/>
       <c r="I54" s="20"/>
       <c r="J54" s="20"/>
-      <c r="P54" s="1"/>
-    </row>
-    <row r="55" spans="1:21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K54" s="20"/>
+      <c r="L54" s="20"/>
+      <c r="R54" s="1"/>
+    </row>
+    <row r="55" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
-      <c r="B55" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="B55" s="20"/>
       <c r="C55" s="20"/>
-      <c r="D55" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="E55" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="F55" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G55" s="20" t="s">
-        <v>68</v>
-      </c>
+      <c r="D55" s="20"/>
+      <c r="E55" s="20"/>
+      <c r="F55" s="20"/>
+      <c r="G55" s="20"/>
       <c r="H55" s="20"/>
-      <c r="I55" s="20" t="s">
-        <v>510</v>
-      </c>
-      <c r="J55" s="20" t="s">
-        <v>438</v>
-      </c>
-      <c r="P55" s="1"/>
-    </row>
-    <row r="56" spans="1:21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I55" s="20"/>
+      <c r="J55" s="20"/>
+      <c r="K55" s="20"/>
+      <c r="L55" s="20"/>
+      <c r="R55" s="1"/>
+    </row>
+    <row r="56" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
-      <c r="B56" s="20" t="s">
-        <v>24</v>
-      </c>
+      <c r="B56" s="20"/>
       <c r="C56" s="20"/>
-      <c r="D56" s="20" t="s">
-        <v>556</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="F56" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="D56" s="20"/>
+      <c r="E56" s="20"/>
+      <c r="F56" s="20"/>
+      <c r="G56" s="20"/>
       <c r="H56" s="20"/>
-      <c r="I56" s="20">
-        <v>1</v>
-      </c>
+      <c r="I56" s="20"/>
       <c r="J56" s="20"/>
-      <c r="K56" s="3">
-        <v>-2</v>
-      </c>
-      <c r="L56" s="3">
-        <v>2</v>
-      </c>
-      <c r="M56" s="3">
-        <v>0</v>
-      </c>
-      <c r="N56" s="3">
-        <f>(L56-K56)/6</f>
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="K56" s="20"/>
+      <c r="L56" s="20"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-      <c r="P56" s="1"/>
-      <c r="R56" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A57" t="b">
-        <v>0</v>
-      </c>
-      <c r="B57" s="20" t="s">
-        <v>506</v>
-      </c>
-      <c r="C57" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="D57" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="E57" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+      <c r="R56" s="1"/>
+      <c r="T56" s="1"/>
+    </row>
+    <row r="57" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B57" s="20"/>
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
       <c r="F57" s="20"/>
       <c r="G57" s="20"/>
       <c r="H57" s="20"/>
       <c r="I57" s="20"/>
       <c r="J57" s="20"/>
-      <c r="K57" s="29"/>
-      <c r="L57" s="29"/>
-      <c r="M57" s="29"/>
-      <c r="N57" s="29"/>
-      <c r="O57" s="29"/>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="29"/>
-      <c r="R57" s="29"/>
-      <c r="S57" s="29"/>
-      <c r="T57" s="29"/>
-      <c r="U57" s="29"/>
-    </row>
-    <row r="58" spans="1:21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K57" s="20"/>
+      <c r="L57" s="20"/>
+      <c r="M57" s="28"/>
+      <c r="N57" s="28"/>
+      <c r="O57" s="28"/>
+      <c r="P57" s="28"/>
+      <c r="Q57" s="28"/>
+      <c r="R57" s="1"/>
+      <c r="S57" s="28"/>
+      <c r="T57" s="28"/>
+      <c r="U57" s="28"/>
+      <c r="V57" s="28"/>
+      <c r="W57" s="28"/>
+    </row>
+    <row r="58" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
-      <c r="B58" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="B58" s="20"/>
       <c r="C58" s="20"/>
-      <c r="D58" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="E58" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="F58" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G58" s="20" t="s">
-        <v>68</v>
-      </c>
+      <c r="D58" s="20"/>
+      <c r="E58" s="20"/>
+      <c r="F58" s="20"/>
+      <c r="G58" s="20"/>
       <c r="H58" s="20"/>
-      <c r="I58" s="20" t="s">
-        <v>511</v>
-      </c>
-      <c r="J58" s="20" t="s">
-        <v>438</v>
-      </c>
+      <c r="I58" s="20"/>
+      <c r="J58" s="20"/>
       <c r="K58" s="20"/>
-      <c r="L58" s="29"/>
-      <c r="M58" s="29"/>
-      <c r="N58" s="29"/>
-      <c r="O58" s="29"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="29"/>
-      <c r="R58" s="29"/>
-      <c r="S58" s="29"/>
-      <c r="T58" s="29"/>
-      <c r="U58" s="29"/>
-    </row>
-    <row r="59" spans="1:21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L58" s="20"/>
+      <c r="M58" s="20"/>
+      <c r="N58" s="28"/>
+      <c r="O58" s="28"/>
+      <c r="P58" s="28"/>
+      <c r="Q58" s="28"/>
+      <c r="R58" s="1"/>
+      <c r="S58" s="28"/>
+      <c r="T58" s="28"/>
+      <c r="U58" s="28"/>
+      <c r="V58" s="28"/>
+      <c r="W58" s="28"/>
+    </row>
+    <row r="59" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A59" s="20"/>
-      <c r="B59" s="20" t="s">
-        <v>24</v>
-      </c>
+      <c r="B59" s="20"/>
       <c r="C59" s="20"/>
-      <c r="D59" s="20" t="s">
-        <v>557</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="F59" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G59" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="D59" s="20"/>
+      <c r="E59" s="20"/>
+      <c r="F59" s="20"/>
+      <c r="G59" s="20"/>
       <c r="H59" s="20"/>
-      <c r="I59" s="20">
-        <v>1</v>
-      </c>
+      <c r="I59" s="20"/>
       <c r="J59" s="20"/>
-      <c r="K59" s="30">
-        <v>-2</v>
-      </c>
-      <c r="L59" s="30">
-        <v>2</v>
-      </c>
-      <c r="M59" s="30">
-        <v>0</v>
-      </c>
-      <c r="N59" s="3">
-        <f>(L59-K59)/6</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O59" s="3"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="29"/>
-      <c r="R59" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="S59" s="29"/>
-      <c r="T59" s="29"/>
-      <c r="U59" s="29"/>
-    </row>
-    <row r="60" spans="1:21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A60" t="b">
-        <v>0</v>
-      </c>
-      <c r="B60" s="20" t="s">
-        <v>507</v>
-      </c>
-      <c r="C60" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="D60" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="E60" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="K59" s="20"/>
+      <c r="L59" s="20"/>
+      <c r="M59" s="29"/>
+      <c r="N59" s="29"/>
+      <c r="O59" s="29"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
+      <c r="R59" s="1"/>
+      <c r="S59" s="28"/>
+      <c r="T59" s="28"/>
+      <c r="U59" s="28"/>
+      <c r="V59" s="28"/>
+      <c r="W59" s="28"/>
+    </row>
+    <row r="60" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B60" s="20"/>
+      <c r="C60" s="20"/>
+      <c r="D60" s="20"/>
+      <c r="E60" s="20"/>
       <c r="F60" s="20"/>
       <c r="G60" s="20"/>
       <c r="H60" s="20"/>
       <c r="I60" s="20"/>
       <c r="J60" s="20"/>
-      <c r="K60" s="29"/>
-      <c r="L60" s="29"/>
-      <c r="M60" s="29"/>
-      <c r="N60" s="29"/>
-      <c r="O60" s="29"/>
-      <c r="P60" s="1"/>
-      <c r="Q60" s="29"/>
-      <c r="R60" s="29"/>
-      <c r="S60" s="29"/>
-      <c r="T60" s="29"/>
-      <c r="U60" s="29"/>
-    </row>
-    <row r="61" spans="1:21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K60" s="20"/>
+      <c r="L60" s="20"/>
+      <c r="M60" s="28"/>
+      <c r="N60" s="28"/>
+      <c r="O60" s="28"/>
+      <c r="P60" s="28"/>
+      <c r="Q60" s="28"/>
+      <c r="R60" s="1"/>
+      <c r="S60" s="28"/>
+      <c r="T60" s="28"/>
+      <c r="U60" s="28"/>
+      <c r="V60" s="28"/>
+      <c r="W60" s="28"/>
+    </row>
+    <row r="61" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A61" s="20"/>
-      <c r="B61" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="B61" s="20"/>
       <c r="C61" s="20"/>
-      <c r="D61" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="F61" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G61" s="20" t="s">
-        <v>68</v>
-      </c>
+      <c r="D61" s="20"/>
+      <c r="E61" s="20"/>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20"/>
       <c r="H61" s="20"/>
-      <c r="I61" s="20" t="s">
-        <v>512</v>
-      </c>
-      <c r="J61" s="20" t="s">
-        <v>438</v>
-      </c>
+      <c r="I61" s="20"/>
+      <c r="J61" s="20"/>
       <c r="K61" s="20"/>
-      <c r="L61" s="29"/>
-      <c r="M61" s="29"/>
-      <c r="N61" s="29"/>
-      <c r="O61" s="29"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="29"/>
-      <c r="R61" s="29"/>
-      <c r="S61" s="29"/>
-      <c r="T61" s="29"/>
-      <c r="U61" s="29"/>
-    </row>
-    <row r="62" spans="1:21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L61" s="20"/>
+      <c r="M61" s="20"/>
+      <c r="N61" s="28"/>
+      <c r="O61" s="28"/>
+      <c r="P61" s="28"/>
+      <c r="Q61" s="28"/>
+      <c r="R61" s="1"/>
+      <c r="S61" s="28"/>
+      <c r="T61" s="28"/>
+      <c r="U61" s="28"/>
+      <c r="V61" s="28"/>
+      <c r="W61" s="28"/>
+    </row>
+    <row r="62" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A62" s="20"/>
-      <c r="B62" s="20" t="s">
-        <v>24</v>
-      </c>
+      <c r="B62" s="20"/>
       <c r="C62" s="20"/>
-      <c r="D62" s="20" t="s">
-        <v>558</v>
-      </c>
-      <c r="E62" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="F62" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G62" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="D62" s="20"/>
+      <c r="E62" s="20"/>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20"/>
       <c r="H62" s="20"/>
-      <c r="I62" s="20">
-        <v>1</v>
-      </c>
+      <c r="I62" s="20"/>
       <c r="J62" s="20"/>
-      <c r="K62" s="30">
-        <v>-2</v>
-      </c>
-      <c r="L62" s="30">
-        <v>2</v>
-      </c>
-      <c r="M62" s="30">
-        <v>0</v>
-      </c>
-      <c r="N62" s="3">
-        <f>(L62-K62)/6</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O62" s="3"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="29"/>
-      <c r="R62" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="S62" s="29"/>
-      <c r="T62" s="29"/>
-      <c r="U62" s="29"/>
-    </row>
-    <row r="63" spans="1:21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A63" t="b">
-        <v>0</v>
-      </c>
-      <c r="B63" s="20" t="s">
-        <v>508</v>
-      </c>
-      <c r="C63" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="D63" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="E63" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="K62" s="20"/>
+      <c r="L62" s="20"/>
+      <c r="M62" s="29"/>
+      <c r="N62" s="29"/>
+      <c r="O62" s="29"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="28"/>
+      <c r="T62" s="28"/>
+      <c r="U62" s="28"/>
+      <c r="V62" s="28"/>
+      <c r="W62" s="28"/>
+    </row>
+    <row r="63" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B63" s="20"/>
+      <c r="C63" s="20"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="20"/>
       <c r="F63" s="20"/>
       <c r="G63" s="20"/>
       <c r="H63" s="20"/>
       <c r="I63" s="20"/>
       <c r="J63" s="20"/>
-      <c r="K63" s="29"/>
-      <c r="L63" s="29"/>
-      <c r="M63" s="29"/>
-      <c r="N63" s="29"/>
-      <c r="O63" s="29"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="29"/>
-      <c r="R63" s="29"/>
-      <c r="S63" s="29"/>
-      <c r="T63" s="29"/>
-      <c r="U63" s="29"/>
-    </row>
-    <row r="64" spans="1:21" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K63" s="20"/>
+      <c r="L63" s="20"/>
+      <c r="M63" s="28"/>
+      <c r="N63" s="28"/>
+      <c r="O63" s="28"/>
+      <c r="P63" s="28"/>
+      <c r="Q63" s="28"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="28"/>
+      <c r="T63" s="28"/>
+      <c r="U63" s="28"/>
+      <c r="V63" s="28"/>
+      <c r="W63" s="28"/>
+    </row>
+    <row r="64" spans="1:23" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A64" s="20"/>
-      <c r="B64" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="B64" s="20"/>
       <c r="C64" s="20"/>
-      <c r="D64" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="F64" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G64" s="20" t="s">
-        <v>68</v>
-      </c>
+      <c r="D64" s="20"/>
+      <c r="E64" s="20"/>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20"/>
       <c r="H64" s="20"/>
-      <c r="I64" s="20" t="s">
-        <v>513</v>
-      </c>
-      <c r="J64" s="20" t="s">
-        <v>438</v>
-      </c>
+      <c r="I64" s="20"/>
+      <c r="J64" s="20"/>
       <c r="K64" s="20"/>
-      <c r="L64" s="29"/>
-      <c r="M64" s="29"/>
-      <c r="N64" s="29"/>
-      <c r="O64" s="29"/>
-      <c r="P64" s="1"/>
-      <c r="Q64" s="29"/>
-      <c r="R64" s="29"/>
-      <c r="S64" s="29"/>
-      <c r="T64" s="29"/>
-      <c r="U64" s="29"/>
-    </row>
-    <row r="65" spans="1:24" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L64" s="20"/>
+      <c r="M64" s="20"/>
+      <c r="N64" s="28"/>
+      <c r="O64" s="28"/>
+      <c r="P64" s="28"/>
+      <c r="Q64" s="28"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="28"/>
+      <c r="T64" s="28"/>
+      <c r="U64" s="28"/>
+      <c r="V64" s="28"/>
+      <c r="W64" s="28"/>
+    </row>
+    <row r="65" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A65" s="20"/>
-      <c r="B65" s="20" t="s">
-        <v>24</v>
-      </c>
+      <c r="B65" s="20"/>
       <c r="C65" s="20"/>
-      <c r="D65" s="20" t="s">
-        <v>559</v>
-      </c>
-      <c r="E65" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="F65" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="D65" s="20"/>
+      <c r="E65" s="20"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20"/>
       <c r="H65" s="20"/>
-      <c r="I65" s="20">
-        <v>1</v>
-      </c>
+      <c r="I65" s="20"/>
       <c r="J65" s="20"/>
-      <c r="K65" s="30">
-        <v>-2</v>
-      </c>
-      <c r="L65" s="30">
-        <v>2</v>
-      </c>
-      <c r="M65" s="30">
-        <v>0</v>
-      </c>
-      <c r="N65" s="3">
-        <f>(L65-K65)/6</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O65" s="3"/>
-      <c r="P65" s="1"/>
-      <c r="Q65" s="29"/>
-      <c r="R65" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="S65" s="29"/>
-      <c r="T65" s="29"/>
-      <c r="U65" s="29"/>
-    </row>
-    <row r="66" spans="1:24" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A66" t="b">
-        <v>0</v>
-      </c>
-      <c r="B66" s="20" t="s">
-        <v>509</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>394</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>74</v>
-      </c>
+      <c r="K65" s="20"/>
+      <c r="L65" s="20"/>
+      <c r="M65" s="29"/>
+      <c r="N65" s="29"/>
+      <c r="O65" s="29"/>
+      <c r="P65" s="3"/>
+      <c r="Q65" s="3"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="28"/>
+      <c r="T65" s="28"/>
+      <c r="U65" s="28"/>
+      <c r="V65" s="28"/>
+      <c r="W65" s="28"/>
+    </row>
+    <row r="66" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B66" s="20"/>
+      <c r="C66" s="20"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="20"/>
       <c r="F66" s="20"/>
       <c r="G66" s="20"/>
       <c r="H66" s="20"/>
       <c r="I66" s="20"/>
       <c r="J66" s="20"/>
-      <c r="K66" s="29"/>
-      <c r="L66" s="29"/>
-      <c r="M66" s="29"/>
-      <c r="N66" s="29"/>
-      <c r="O66" s="29"/>
-      <c r="P66" s="1"/>
-      <c r="Q66" s="29"/>
-      <c r="R66" s="29"/>
-      <c r="S66" s="29"/>
-      <c r="T66" s="29"/>
-      <c r="U66" s="29"/>
-    </row>
-    <row r="67" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="K66" s="20"/>
+      <c r="L66" s="20"/>
+      <c r="M66" s="28"/>
+      <c r="N66" s="28"/>
+      <c r="O66" s="28"/>
+      <c r="P66" s="28"/>
+      <c r="Q66" s="28"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="28"/>
+      <c r="T66" s="28"/>
+      <c r="U66" s="28"/>
+      <c r="V66" s="28"/>
+      <c r="W66" s="28"/>
+    </row>
+    <row r="67" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A67" s="20"/>
-      <c r="B67" s="20" t="s">
-        <v>23</v>
-      </c>
+      <c r="B67" s="20"/>
       <c r="C67" s="20"/>
-      <c r="D67" s="20" t="s">
-        <v>395</v>
-      </c>
-      <c r="E67" s="20" t="s">
-        <v>396</v>
-      </c>
-      <c r="F67" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="G67" s="20" t="s">
-        <v>68</v>
-      </c>
+      <c r="D67" s="20"/>
+      <c r="E67" s="20"/>
+      <c r="F67" s="20"/>
+      <c r="G67" s="20"/>
       <c r="H67" s="20"/>
-      <c r="I67" s="20" t="s">
-        <v>514</v>
-      </c>
-      <c r="J67" s="20" t="s">
-        <v>438</v>
-      </c>
+      <c r="I67" s="20"/>
+      <c r="J67" s="20"/>
       <c r="K67" s="20"/>
-      <c r="L67" s="29"/>
-      <c r="M67" s="29"/>
-      <c r="N67" s="29"/>
-      <c r="O67" s="29"/>
-      <c r="Q67" s="29"/>
-      <c r="R67" s="29"/>
-      <c r="S67" s="29"/>
-      <c r="T67" s="29"/>
-      <c r="U67" s="29"/>
-      <c r="V67" s="29"/>
-      <c r="W67" s="29"/>
-      <c r="X67" s="29"/>
-    </row>
-    <row r="68" spans="1:24" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="L67" s="20"/>
+      <c r="M67" s="20"/>
+      <c r="N67" s="28"/>
+      <c r="O67" s="28"/>
+      <c r="P67" s="28"/>
+      <c r="Q67" s="28"/>
+      <c r="S67" s="28"/>
+      <c r="T67" s="28"/>
+      <c r="U67" s="28"/>
+      <c r="V67" s="28"/>
+      <c r="W67" s="28"/>
+      <c r="X67" s="28"/>
+      <c r="Y67" s="28"/>
+      <c r="Z67" s="28"/>
+    </row>
+    <row r="68" spans="1:26" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A68" s="20"/>
-      <c r="B68" s="20" t="s">
-        <v>24</v>
-      </c>
+      <c r="B68" s="20"/>
       <c r="C68" s="20"/>
-      <c r="D68" s="20" t="s">
-        <v>560</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>398</v>
-      </c>
-      <c r="F68" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="G68" s="20" t="s">
-        <v>70</v>
-      </c>
+      <c r="D68" s="20"/>
+      <c r="E68" s="20"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
       <c r="H68" s="20"/>
-      <c r="I68" s="20">
-        <v>1</v>
-      </c>
+      <c r="I68" s="20"/>
       <c r="J68" s="20"/>
-      <c r="K68" s="30">
-        <v>-2</v>
-      </c>
-      <c r="L68" s="30">
-        <v>2</v>
-      </c>
-      <c r="M68" s="30">
-        <v>0</v>
-      </c>
-      <c r="N68" s="3">
-        <f>(L68-K68)/6</f>
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="O68" s="3"/>
-      <c r="Q68" s="29"/>
-      <c r="R68" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="S68" s="29"/>
-      <c r="T68" s="29"/>
-      <c r="U68" s="29"/>
-      <c r="V68" s="29"/>
-      <c r="W68" s="29"/>
-      <c r="X68" s="29"/>
-    </row>
-    <row r="69" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A69" t="b">
-        <v>1</v>
-      </c>
-      <c r="B69" t="s">
-        <v>515</v>
-      </c>
-      <c r="C69" s="37" t="s">
-        <v>516</v>
-      </c>
-      <c r="D69" t="s">
-        <v>516</v>
-      </c>
-      <c r="E69" t="s">
-        <v>74</v>
-      </c>
+      <c r="K68" s="20"/>
+      <c r="L68" s="20"/>
+      <c r="M68" s="29"/>
+      <c r="N68" s="29"/>
+      <c r="O68" s="29"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
+      <c r="S68" s="28"/>
+      <c r="T68" s="28"/>
+      <c r="U68" s="28"/>
+      <c r="V68" s="28"/>
+      <c r="W68" s="28"/>
+      <c r="X68" s="28"/>
+      <c r="Y68" s="28"/>
+      <c r="Z68" s="28"/>
+    </row>
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A69"/>
+      <c r="B69"/>
+      <c r="C69" s="36"/>
+      <c r="D69" s="36"/>
+      <c r="E69"/>
       <c r="F69"/>
       <c r="G69"/>
       <c r="H69"/>
@@ -8096,253 +7672,147 @@
       <c r="J69"/>
       <c r="K69"/>
       <c r="L69"/>
-      <c r="V69" s="29"/>
-      <c r="W69" s="29"/>
-      <c r="X69" s="29"/>
-    </row>
-    <row r="70" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M69"/>
+      <c r="N69"/>
+      <c r="X69" s="28"/>
+      <c r="Y69" s="28"/>
+      <c r="Z69" s="28"/>
+    </row>
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70"/>
-      <c r="B70" t="s">
-        <v>23</v>
-      </c>
-      <c r="C70"/>
-      <c r="D70" t="s">
-        <v>517</v>
-      </c>
-      <c r="E70" t="s">
-        <v>518</v>
-      </c>
-      <c r="F70" t="s">
-        <v>2</v>
-      </c>
-      <c r="G70" t="s">
-        <v>68</v>
-      </c>
+      <c r="B70"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36"/>
+      <c r="E70"/>
+      <c r="F70"/>
+      <c r="G70"/>
       <c r="H70"/>
-      <c r="I70" t="s">
-        <v>537</v>
-      </c>
-      <c r="J70" t="s">
-        <v>520</v>
-      </c>
+      <c r="I70"/>
+      <c r="J70"/>
       <c r="K70"/>
       <c r="L70"/>
-      <c r="V70" s="29"/>
-      <c r="W70" s="29"/>
-      <c r="X70" s="29"/>
-    </row>
-    <row r="71" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M70"/>
+      <c r="N70"/>
+      <c r="X70" s="28"/>
+      <c r="Y70" s="28"/>
+      <c r="Z70" s="28"/>
+    </row>
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71"/>
-      <c r="B71" t="s">
-        <v>23</v>
-      </c>
-      <c r="C71"/>
-      <c r="D71" t="s">
-        <v>521</v>
-      </c>
-      <c r="E71" t="s">
-        <v>522</v>
-      </c>
-      <c r="F71" t="s">
-        <v>2</v>
-      </c>
-      <c r="G71" t="s">
-        <v>69</v>
-      </c>
+      <c r="B71"/>
+      <c r="C71" s="36"/>
+      <c r="D71" s="36"/>
+      <c r="E71"/>
+      <c r="F71"/>
+      <c r="G71"/>
       <c r="H71"/>
-      <c r="I71" t="b">
-        <v>1</v>
-      </c>
+      <c r="I71"/>
       <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
-      <c r="V71" s="29"/>
-      <c r="W71" s="29"/>
-      <c r="X71" s="29"/>
-    </row>
-    <row r="72" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M71"/>
+      <c r="N71"/>
+      <c r="X71" s="28"/>
+      <c r="Y71" s="28"/>
+      <c r="Z71" s="28"/>
+    </row>
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72"/>
-      <c r="B72" t="s">
-        <v>24</v>
-      </c>
-      <c r="C72"/>
-      <c r="D72" t="s">
-        <v>523</v>
-      </c>
-      <c r="E72" t="s">
-        <v>524</v>
-      </c>
-      <c r="F72" t="s">
-        <v>15</v>
-      </c>
-      <c r="G72" t="s">
-        <v>70</v>
-      </c>
+      <c r="B72"/>
+      <c r="C72" s="36"/>
+      <c r="D72"/>
+      <c r="E72"/>
+      <c r="F72"/>
+      <c r="G72"/>
       <c r="H72"/>
-      <c r="I72">
-        <v>0.8</v>
-      </c>
+      <c r="I72"/>
       <c r="J72"/>
-      <c r="K72">
-        <v>0.5</v>
-      </c>
-      <c r="L72">
-        <v>0.9</v>
-      </c>
-      <c r="M72" s="1">
-        <v>0.75</v>
-      </c>
-      <c r="N72" s="3">
-        <f>(L72-K72)/6</f>
-        <v>6.6666666666666666E-2</v>
-      </c>
+      <c r="K72"/>
+      <c r="L72"/>
+      <c r="M72"/>
       <c r="O72" s="3"/>
-      <c r="Q72" s="29"/>
-      <c r="R72" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="V72" s="29"/>
-      <c r="W72" s="29"/>
-      <c r="X72" s="29"/>
-    </row>
-    <row r="73" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="P72" s="3"/>
+      <c r="R72" s="28"/>
+      <c r="S72" s="28"/>
+      <c r="W72" s="28"/>
+      <c r="X72" s="28"/>
+      <c r="Y72" s="28"/>
+    </row>
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73"/>
-      <c r="B73" t="s">
-        <v>23</v>
-      </c>
-      <c r="C73"/>
-      <c r="D73" t="s">
-        <v>525</v>
-      </c>
-      <c r="E73" t="s">
-        <v>526</v>
-      </c>
-      <c r="F73" t="s">
-        <v>2</v>
-      </c>
-      <c r="G73" t="s">
-        <v>69</v>
-      </c>
+      <c r="B73"/>
+      <c r="C73" s="36"/>
+      <c r="D73"/>
+      <c r="E73"/>
+      <c r="F73"/>
+      <c r="G73"/>
       <c r="H73"/>
-      <c r="I73" t="b">
-        <v>0</v>
-      </c>
+      <c r="I73"/>
       <c r="J73"/>
       <c r="K73"/>
       <c r="L73"/>
-      <c r="V73" s="29"/>
-      <c r="W73" s="29"/>
-      <c r="X73" s="29"/>
-    </row>
-    <row r="74" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M73"/>
+      <c r="W73" s="28"/>
+      <c r="X73" s="28"/>
+      <c r="Y73" s="28"/>
+    </row>
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74"/>
-      <c r="B74" t="s">
-        <v>23</v>
-      </c>
-      <c r="C74"/>
-      <c r="D74" t="s">
-        <v>527</v>
-      </c>
-      <c r="E74" t="s">
-        <v>528</v>
-      </c>
-      <c r="F74" t="s">
-        <v>2</v>
-      </c>
-      <c r="G74" t="s">
-        <v>70</v>
-      </c>
+      <c r="B74"/>
+      <c r="C74" s="36"/>
+      <c r="D74"/>
+      <c r="E74"/>
+      <c r="F74"/>
+      <c r="G74"/>
       <c r="H74"/>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
+      <c r="I74"/>
       <c r="J74"/>
       <c r="K74"/>
       <c r="L74"/>
-      <c r="V74" s="29"/>
-      <c r="W74" s="29"/>
-      <c r="X74" s="29"/>
-    </row>
-    <row r="75" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M74"/>
+      <c r="W74" s="28"/>
+      <c r="X74" s="28"/>
+      <c r="Y74" s="28"/>
+    </row>
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75"/>
-      <c r="B75" t="s">
-        <v>23</v>
-      </c>
-      <c r="C75"/>
-      <c r="D75" t="s">
-        <v>529</v>
-      </c>
-      <c r="E75" t="s">
-        <v>530</v>
-      </c>
-      <c r="F75" t="s">
-        <v>2</v>
-      </c>
-      <c r="G75" t="s">
-        <v>68</v>
-      </c>
+      <c r="B75"/>
+      <c r="C75" s="36"/>
+      <c r="D75"/>
+      <c r="E75"/>
+      <c r="F75"/>
+      <c r="G75"/>
       <c r="H75"/>
-      <c r="I75">
-        <v>0</v>
-      </c>
-      <c r="J75" t="s">
-        <v>532</v>
-      </c>
+      <c r="I75"/>
+      <c r="J75"/>
       <c r="K75"/>
       <c r="L75"/>
-      <c r="V75" s="29"/>
-      <c r="W75" s="29"/>
-      <c r="X75" s="29"/>
-    </row>
-    <row r="76" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="M75"/>
+      <c r="W75" s="28"/>
+      <c r="X75" s="28"/>
+      <c r="Y75" s="28"/>
+    </row>
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76"/>
-      <c r="B76" t="s">
-        <v>23</v>
-      </c>
-      <c r="C76"/>
-      <c r="D76" t="s">
-        <v>533</v>
-      </c>
-      <c r="E76" t="s">
-        <v>534</v>
-      </c>
-      <c r="F76" t="s">
-        <v>2</v>
-      </c>
-      <c r="G76" t="s">
-        <v>68</v>
-      </c>
+      <c r="B76"/>
+      <c r="C76" s="36"/>
+      <c r="D76"/>
+      <c r="E76"/>
+      <c r="F76"/>
+      <c r="G76"/>
       <c r="H76"/>
-      <c r="I76">
-        <v>0</v>
-      </c>
-      <c r="J76" t="s">
-        <v>536</v>
-      </c>
+      <c r="I76"/>
+      <c r="J76"/>
       <c r="K76"/>
       <c r="L76"/>
-      <c r="V76" s="29"/>
-      <c r="W76" s="29"/>
-      <c r="X76" s="29"/>
-    </row>
-    <row r="77" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A77" t="b">
-        <v>1</v>
-      </c>
-      <c r="B77" t="s">
-        <v>263</v>
-      </c>
-      <c r="C77" s="37" t="s">
-        <v>264</v>
-      </c>
-      <c r="D77" t="s">
-        <v>264</v>
-      </c>
-      <c r="E77" t="s">
-        <v>74</v>
-      </c>
-      <c r="J77" s="5"/>
-      <c r="K77" s="1"/>
+      <c r="M76"/>
+      <c r="W76" s="28"/>
+      <c r="X76" s="28"/>
+      <c r="Y76" s="28"/>
+    </row>
+    <row r="77" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C77" s="36"/>
+      <c r="K77" s="5"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
       <c r="N77" s="1"/>
@@ -8353,70 +7823,23 @@
       <c r="S77" s="1"/>
       <c r="T77" s="1"/>
       <c r="U77" s="1"/>
-    </row>
-    <row r="78" spans="1:24" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>24</v>
-      </c>
-      <c r="D78" t="s">
-        <v>265</v>
-      </c>
-      <c r="E78" t="s">
-        <v>266</v>
-      </c>
-      <c r="F78" t="s">
-        <v>15</v>
-      </c>
-      <c r="G78" t="s">
-        <v>70</v>
-      </c>
-      <c r="I78">
-        <v>5</v>
-      </c>
-      <c r="J78" s="5"/>
-      <c r="K78">
-        <v>1</v>
-      </c>
-      <c r="L78">
-        <v>5</v>
-      </c>
-      <c r="M78" s="20">
-        <v>2.5</v>
-      </c>
-      <c r="N78" s="3">
-        <f>(L78-K78)/6</f>
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="V77" s="1"/>
+    </row>
+    <row r="78" spans="1:26" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="C78" s="36"/>
+      <c r="K78" s="5"/>
+      <c r="N78" s="20"/>
       <c r="O78" s="3"/>
-      <c r="P78" s="1"/>
-      <c r="R78" s="1" t="s">
-        <v>26</v>
-      </c>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="1"/>
       <c r="S78" s="1"/>
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
-    </row>
-    <row r="79" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B79" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" t="s">
-        <v>565</v>
-      </c>
-      <c r="E79" t="s">
-        <v>566</v>
-      </c>
-      <c r="F79" t="s">
-        <v>2</v>
-      </c>
-      <c r="G79" t="s">
-        <v>69</v>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" s="5"/>
-      <c r="K79" s="1"/>
+      <c r="V78" s="1"/>
+    </row>
+    <row r="79" spans="1:26" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C79" s="36"/>
+      <c r="K79" s="5"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
@@ -8427,98 +7850,59 @@
       <c r="S79" s="1"/>
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
-    </row>
-    <row r="80" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="V79" s="1"/>
+    </row>
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80"/>
-      <c r="B80" t="s">
-        <v>23</v>
-      </c>
-      <c r="C80"/>
-      <c r="D80" t="s">
-        <v>267</v>
-      </c>
-      <c r="E80" t="s">
-        <v>268</v>
-      </c>
-      <c r="F80" t="s">
-        <v>2</v>
-      </c>
-      <c r="G80" t="s">
-        <v>70</v>
-      </c>
+      <c r="B80"/>
+      <c r="C80" s="36"/>
+      <c r="D80"/>
+      <c r="E80"/>
+      <c r="F80"/>
+      <c r="G80"/>
       <c r="H80"/>
-      <c r="I80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="I80"/>
+      <c r="J80"/>
+      <c r="K80" s="5"/>
+    </row>
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81"/>
-      <c r="B81" t="s">
-        <v>23</v>
-      </c>
-      <c r="C81"/>
-      <c r="D81" t="s">
-        <v>269</v>
-      </c>
-      <c r="E81" t="s">
-        <v>270</v>
-      </c>
-      <c r="F81" t="s">
-        <v>2</v>
-      </c>
-      <c r="G81" t="s">
-        <v>70</v>
-      </c>
+      <c r="B81"/>
+      <c r="C81" s="36"/>
+      <c r="D81"/>
+      <c r="E81"/>
+      <c r="F81"/>
+      <c r="G81"/>
       <c r="H81"/>
-      <c r="I81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="I81"/>
+      <c r="J81"/>
+      <c r="K81" s="5"/>
+    </row>
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82"/>
-      <c r="B82" t="s">
-        <v>23</v>
-      </c>
-      <c r="C82"/>
-      <c r="D82" t="s">
-        <v>271</v>
-      </c>
-      <c r="E82" t="s">
-        <v>272</v>
-      </c>
-      <c r="F82" t="s">
-        <v>2</v>
-      </c>
-      <c r="G82" t="s">
-        <v>71</v>
-      </c>
+      <c r="B82"/>
+      <c r="C82" s="36"/>
+      <c r="D82"/>
+      <c r="E82"/>
+      <c r="F82"/>
+      <c r="G82"/>
       <c r="H82"/>
-      <c r="I82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="B83" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="C83" s="38" t="s">
-        <v>567</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>567</v>
-      </c>
-      <c r="E83" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="I82"/>
+      <c r="J82"/>
+      <c r="K82" s="5"/>
+    </row>
+    <row r="83" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="1"/>
+      <c r="B83" s="1"/>
+      <c r="C83" s="37"/>
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
       <c r="H83" s="1"/>
-      <c r="I83" s="5"/>
+      <c r="I83" s="1"/>
       <c r="J83" s="5"/>
-      <c r="K83" s="1"/>
+      <c r="K83" s="5"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
       <c r="N83" s="1"/>
@@ -8526,346 +7910,81 @@
       <c r="P83" s="1"/>
       <c r="Q83" s="1"/>
       <c r="R83" s="1"/>
-    </row>
-    <row r="84" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="S83" s="1"/>
+    </row>
+    <row r="84" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1"/>
-      <c r="B84" t="s">
-        <v>23</v>
-      </c>
-      <c r="D84" t="s">
-        <v>517</v>
-      </c>
-      <c r="E84" t="s">
-        <v>568</v>
-      </c>
-      <c r="F84" t="s">
-        <v>2</v>
-      </c>
-      <c r="G84" t="s">
-        <v>68</v>
-      </c>
-      <c r="I84" t="s">
-        <v>571</v>
-      </c>
-      <c r="J84" t="s">
-        <v>572</v>
-      </c>
-      <c r="M84" s="1"/>
+      <c r="C84" s="36"/>
       <c r="N84" s="1"/>
       <c r="O84" s="1"/>
       <c r="P84" s="1"/>
       <c r="Q84" s="1"/>
       <c r="R84" s="1"/>
-    </row>
-    <row r="85" spans="1:24" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="S84" s="1"/>
+    </row>
+    <row r="85" spans="1:25" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A85" s="20"/>
-      <c r="B85" t="s">
-        <v>24</v>
-      </c>
-      <c r="D85" t="s">
-        <v>569</v>
-      </c>
-      <c r="E85" t="s">
-        <v>570</v>
-      </c>
-      <c r="F85" t="s">
-        <v>15</v>
-      </c>
-      <c r="G85" t="s">
-        <v>70</v>
-      </c>
-      <c r="I85">
-        <v>3</v>
-      </c>
-      <c r="K85">
-        <v>2.5</v>
-      </c>
-      <c r="L85">
-        <v>5.5</v>
-      </c>
-      <c r="M85" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="N85" s="3">
-        <f>(L85-K85)/6</f>
-        <v>0.5</v>
-      </c>
+      <c r="C85" s="36"/>
+      <c r="N85" s="1"/>
       <c r="O85" s="3"/>
-      <c r="P85" s="1"/>
+      <c r="P85" s="3"/>
       <c r="Q85" s="1"/>
-      <c r="R85" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="86" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A86" t="b">
-        <v>1</v>
-      </c>
-      <c r="B86" t="s">
-        <v>578</v>
-      </c>
-      <c r="C86" s="37" t="s">
-        <v>577</v>
-      </c>
-      <c r="D86" t="s">
-        <v>577</v>
-      </c>
-      <c r="E86" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="87" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B87" t="s">
-        <v>24</v>
-      </c>
-      <c r="D87" t="s">
-        <v>579</v>
-      </c>
-      <c r="E87" t="s">
-        <v>580</v>
-      </c>
-      <c r="F87" t="s">
-        <v>15</v>
-      </c>
-      <c r="G87" t="s">
-        <v>70</v>
-      </c>
-      <c r="I87">
-        <v>1.25</v>
-      </c>
-      <c r="K87">
-        <v>1</v>
-      </c>
-      <c r="L87">
-        <v>1.5</v>
-      </c>
-      <c r="M87">
-        <v>1.25</v>
-      </c>
-      <c r="N87" s="3">
-        <f>(L87-K87)/6</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="R85" s="1"/>
+      <c r="S85" s="1"/>
+    </row>
+    <row r="86" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C86" s="36"/>
+    </row>
+    <row r="87" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C87" s="36"/>
       <c r="O87" s="3"/>
-      <c r="R87" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="88" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B88" t="s">
-        <v>24</v>
-      </c>
-      <c r="D88" t="s">
-        <v>582</v>
-      </c>
-      <c r="E88" t="s">
-        <v>581</v>
-      </c>
-      <c r="F88" t="s">
-        <v>15</v>
-      </c>
-      <c r="G88" t="s">
-        <v>70</v>
-      </c>
-      <c r="I88">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="K88">
-        <v>1</v>
-      </c>
-      <c r="L88">
-        <v>1.5</v>
-      </c>
-      <c r="M88">
-        <v>1.1499999999999999</v>
-      </c>
-      <c r="N88" s="3">
-        <f>(L88-K88)/6</f>
-        <v>8.3333333333333329E-2</v>
-      </c>
+      <c r="P87" s="3"/>
+      <c r="S87" s="1"/>
+    </row>
+    <row r="88" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C88" s="36"/>
       <c r="O88" s="3"/>
-      <c r="R88" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="89" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A89" t="b">
-        <v>1</v>
-      </c>
-      <c r="B89" t="s">
-        <v>584</v>
-      </c>
-      <c r="C89" s="37" t="s">
-        <v>583</v>
-      </c>
-      <c r="D89" t="s">
-        <v>583</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="90" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B90" t="s">
-        <v>24</v>
-      </c>
-      <c r="D90" t="s">
-        <v>585</v>
-      </c>
-      <c r="E90" t="s">
-        <v>586</v>
-      </c>
-      <c r="F90" t="s">
-        <v>15</v>
-      </c>
-      <c r="G90" t="s">
-        <v>70</v>
-      </c>
-      <c r="I90">
-        <v>44</v>
-      </c>
-      <c r="K90">
-        <v>42</v>
-      </c>
-      <c r="L90">
-        <v>46</v>
-      </c>
-      <c r="M90">
-        <v>44</v>
-      </c>
-      <c r="N90" s="3">
-        <f>(L90-K90)/6</f>
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="P88" s="3"/>
+      <c r="S88" s="1"/>
+    </row>
+    <row r="89" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="36"/>
+      <c r="F89" s="1"/>
+    </row>
+    <row r="90" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C90" s="36"/>
       <c r="O90" s="3"/>
-      <c r="R90" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="91" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A91" t="b">
-        <v>1</v>
-      </c>
-      <c r="B91" t="s">
-        <v>590</v>
-      </c>
-      <c r="C91" s="37" t="s">
-        <v>587</v>
-      </c>
-      <c r="D91" t="s">
-        <v>587</v>
-      </c>
-      <c r="E91" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="92" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
-        <v>24</v>
-      </c>
-      <c r="D92" t="s">
-        <v>589</v>
-      </c>
-      <c r="E92" t="s">
-        <v>588</v>
-      </c>
-      <c r="F92" t="s">
-        <v>15</v>
-      </c>
-      <c r="G92" t="s">
-        <v>70</v>
-      </c>
-      <c r="I92">
-        <v>120</v>
-      </c>
-      <c r="K92">
-        <v>118</v>
-      </c>
-      <c r="L92">
-        <v>122</v>
-      </c>
-      <c r="M92">
-        <v>120</v>
-      </c>
-      <c r="N92" s="3">
-        <f>(L92-K92)/6</f>
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="P90" s="3"/>
+      <c r="S90" s="1"/>
+    </row>
+    <row r="91" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C91" s="36"/>
+      <c r="F91" s="1"/>
+    </row>
+    <row r="92" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C92" s="36"/>
       <c r="O92" s="3"/>
-      <c r="R92" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A93" t="b">
-        <v>1</v>
-      </c>
-      <c r="B93" t="s">
-        <v>576</v>
-      </c>
-      <c r="C93" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="D93" t="s">
-        <v>574</v>
-      </c>
-      <c r="E93" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="94" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>24</v>
-      </c>
-      <c r="D94" t="s">
-        <v>573</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>575</v>
-      </c>
-      <c r="F94" t="s">
-        <v>15</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="I94">
-        <v>30</v>
-      </c>
-      <c r="K94">
-        <v>0</v>
-      </c>
-      <c r="L94">
-        <v>60</v>
-      </c>
-      <c r="M94">
-        <v>30</v>
-      </c>
-      <c r="N94" s="3">
-        <f>(L94-K94)/6</f>
-        <v>10</v>
-      </c>
+      <c r="P92" s="3"/>
+      <c r="S92" s="1"/>
+    </row>
+    <row r="93" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C93" s="36"/>
+      <c r="F93" s="1"/>
+    </row>
+    <row r="94" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C94" s="36"/>
+      <c r="F94" s="1"/>
+      <c r="H94" s="1"/>
       <c r="O94" s="3"/>
-      <c r="R94" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="95" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A95" t="b">
-        <v>1</v>
-      </c>
-      <c r="B95" t="s">
-        <v>561</v>
-      </c>
-      <c r="C95" s="37" t="s">
-        <v>562</v>
-      </c>
-      <c r="D95" t="s">
-        <v>562</v>
-      </c>
-      <c r="E95" t="s">
-        <v>168</v>
-      </c>
+      <c r="P94" s="3"/>
+      <c r="S94" s="1"/>
+    </row>
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+      <c r="A95"/>
+      <c r="B95"/>
+      <c r="C95" s="36"/>
+      <c r="D95"/>
+      <c r="E95"/>
       <c r="F95"/>
       <c r="G95"/>
       <c r="H95"/>
@@ -8882,50 +8001,23 @@
       <c r="S95"/>
       <c r="T95"/>
       <c r="U95"/>
-      <c r="V95" s="29"/>
-      <c r="W95" s="29"/>
-      <c r="X95" s="29"/>
-    </row>
-    <row r="96" spans="1:24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>24</v>
-      </c>
-      <c r="D96" t="s">
-        <v>563</v>
-      </c>
-      <c r="E96" t="s">
-        <v>564</v>
-      </c>
-      <c r="F96" t="s">
-        <v>15</v>
-      </c>
-      <c r="G96" t="s">
-        <v>70</v>
-      </c>
-      <c r="I96">
-        <v>500</v>
-      </c>
-      <c r="K96">
-        <v>400</v>
-      </c>
-      <c r="L96">
-        <v>700</v>
-      </c>
-      <c r="M96">
-        <v>500</v>
-      </c>
-      <c r="N96" s="3">
-        <f>(L96-K96)/6</f>
-        <v>50</v>
-      </c>
-      <c r="O96" s="3">
-        <v>5</v>
-      </c>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="29"/>
-      <c r="R96" s="29" t="s">
-        <v>26</v>
-      </c>
+      <c r="V95"/>
+      <c r="W95" s="28"/>
+      <c r="X95" s="28"/>
+      <c r="Y95" s="28"/>
+    </row>
+    <row r="96" spans="1:25" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C96" s="36"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="1"/>
+      <c r="R96" s="28"/>
+      <c r="S96" s="28"/>
+    </row>
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="C97" s="37"/>
+      <c r="I97" s="1"/>
+      <c r="K97" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:AA15"/>
@@ -8948,16 +8040,16 @@
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.44140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.77734375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="14.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.6640625" style="1" customWidth="1"/>
     <col min="7" max="16384" width="11.44140625" style="1"/>
   </cols>
@@ -8990,10 +8082,10 @@
         <v>484</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>595</v>
+        <v>570</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>631</v>
+        <v>579</v>
       </c>
     </row>
     <row r="3" spans="1:7" s="16" customFormat="1" ht="31.2" x14ac:dyDescent="0.3">
@@ -9007,566 +8099,542 @@
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="11" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" s="36" t="s">
         <v>632</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>591</v>
-      </c>
-      <c r="B4" t="s">
-        <v>592</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" s="36" t="s">
+        <v>567</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>493</v>
       </c>
-      <c r="D4" t="b">
+      <c r="D4" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>330.7</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>593</v>
-      </c>
-      <c r="B5" t="s">
-        <v>594</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="E4" s="38">
+        <v>140</v>
+      </c>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+    </row>
+    <row r="5" spans="1:7" s="37" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" s="36" t="s">
+        <v>568</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>569</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>493</v>
       </c>
-      <c r="D5" t="b">
+      <c r="D5" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="E5">
-        <v>496.5</v>
-      </c>
-      <c r="F5"/>
-      <c r="G5"/>
+      <c r="E5" s="38">
+        <v>590</v>
+      </c>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>603</v>
+        <v>634</v>
       </c>
       <c r="B6" t="s">
-        <v>603</v>
+        <v>634</v>
       </c>
       <c r="C6" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D6" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="1">
-        <v>63597914341.338799</v>
-      </c>
-      <c r="F6">
-        <f>1000000*46320.38*10</f>
-        <v>463203800000</v>
+        <v>63597914341</v>
+      </c>
+      <c r="F6" s="35">
+        <v>463204000000</v>
       </c>
       <c r="G6"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>604</v>
+        <v>636</v>
       </c>
       <c r="B7" t="s">
-        <v>604</v>
+        <v>636</v>
       </c>
       <c r="C7" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="1">
-        <v>58138465958.343903</v>
-      </c>
-      <c r="F7">
-        <f t="shared" ref="F7:F29" si="0">1000000*46320.38*10</f>
-        <v>463203800000</v>
+        <v>58138465958</v>
+      </c>
+      <c r="F7" s="35">
+        <v>463204000000</v>
       </c>
       <c r="G7"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>605</v>
+        <v>637</v>
       </c>
       <c r="B8" t="s">
-        <v>605</v>
+        <v>637</v>
       </c>
       <c r="C8" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="1">
-        <v>301531761648.04999</v>
-      </c>
-      <c r="F8">
-        <f t="shared" si="0"/>
-        <v>463203800000</v>
+      <c r="E8" s="43">
+        <v>301532000000</v>
+      </c>
+      <c r="F8" s="35">
+        <v>463204000000</v>
       </c>
       <c r="G8"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>606</v>
+        <v>638</v>
       </c>
       <c r="B9" t="s">
-        <v>606</v>
+        <v>638</v>
       </c>
       <c r="C9" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
-      <c r="E9" s="1">
-        <v>336163175378.77802</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>463203800000</v>
+      <c r="E9" s="43">
+        <v>336163000000</v>
+      </c>
+      <c r="F9" s="35">
+        <v>463204000000</v>
       </c>
       <c r="G9"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>607</v>
+        <v>639</v>
       </c>
       <c r="B10" t="s">
-        <v>607</v>
+        <v>639</v>
       </c>
       <c r="C10" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
-      <c r="E10" s="1">
-        <v>1412749721236.3201</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="0"/>
-        <v>463203800000</v>
+      <c r="E10" s="43">
+        <v>1412750000000</v>
+      </c>
+      <c r="F10" s="35">
+        <v>463204000000</v>
       </c>
       <c r="G10"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>608</v>
+        <v>640</v>
       </c>
       <c r="B11" t="s">
-        <v>608</v>
+        <v>640</v>
       </c>
       <c r="C11" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D11" t="b">
         <v>1</v>
       </c>
-      <c r="E11" s="1">
-        <v>2327741408781.5801</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>463203800000</v>
+      <c r="E11" s="43">
+        <v>2327740000000</v>
+      </c>
+      <c r="F11" s="35">
+        <v>463204000000</v>
       </c>
       <c r="G11"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>609</v>
+        <v>641</v>
       </c>
       <c r="B12" t="s">
-        <v>609</v>
+        <v>641</v>
       </c>
       <c r="C12" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D12" t="b">
         <v>1</v>
       </c>
-      <c r="E12" s="1">
-        <v>2402590637505.3901</v>
-      </c>
-      <c r="F12">
-        <f t="shared" si="0"/>
-        <v>463203800000</v>
+      <c r="E12" s="43">
+        <v>2402590000000</v>
+      </c>
+      <c r="F12" s="35">
+        <v>463204000000</v>
       </c>
       <c r="G12"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>610</v>
+        <v>642</v>
       </c>
       <c r="B13" t="s">
-        <v>610</v>
+        <v>642</v>
       </c>
       <c r="C13" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D13" t="b">
         <v>1</v>
       </c>
-      <c r="E13" s="1">
-        <v>2472656245279.3701</v>
-      </c>
-      <c r="F13">
-        <f t="shared" si="0"/>
-        <v>463203800000</v>
+      <c r="E13" s="43">
+        <v>2472660000000</v>
+      </c>
+      <c r="F13" s="35">
+        <v>463204000000</v>
       </c>
       <c r="G13"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>611</v>
+        <v>643</v>
       </c>
       <c r="B14" t="s">
-        <v>611</v>
+        <v>643</v>
       </c>
       <c r="C14" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D14" t="b">
         <v>1</v>
       </c>
-      <c r="E14" s="1">
-        <v>1807432185051.1399</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="0"/>
-        <v>463203800000</v>
+      <c r="E14" s="43">
+        <v>1807430000000</v>
+      </c>
+      <c r="F14" s="35">
+        <v>463204000000</v>
       </c>
       <c r="G14"/>
     </row>
     <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>612</v>
+        <v>644</v>
       </c>
       <c r="B15" t="s">
-        <v>612</v>
+        <v>644</v>
       </c>
       <c r="C15" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D15" t="b">
         <v>1</v>
       </c>
-      <c r="E15" s="1">
-        <v>619615878181.61597</v>
-      </c>
-      <c r="F15">
-        <f t="shared" si="0"/>
-        <v>463203800000</v>
+      <c r="E15" s="43">
+        <v>619616000000</v>
+      </c>
+      <c r="F15" s="35">
+        <v>463204000000</v>
       </c>
     </row>
     <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>613</v>
+        <v>645</v>
       </c>
       <c r="B16" t="s">
-        <v>613</v>
+        <v>645</v>
       </c>
       <c r="C16" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D16" t="b">
         <v>1</v>
       </c>
-      <c r="E16" s="1">
-        <v>117109844324.095</v>
-      </c>
-      <c r="F16">
-        <f t="shared" si="0"/>
-        <v>463203800000</v>
+      <c r="E16" s="43">
+        <v>117110000000</v>
+      </c>
+      <c r="F16" s="35">
+        <v>463204000000</v>
       </c>
     </row>
     <row r="17" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>614</v>
+        <v>646</v>
       </c>
       <c r="B17" t="s">
-        <v>614</v>
+        <v>646</v>
       </c>
       <c r="C17" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D17" t="b">
         <v>1</v>
       </c>
-      <c r="E17">
-        <v>103360013175.79401</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="0"/>
-        <v>463203800000</v>
+      <c r="E17" s="35">
+        <v>103360000000</v>
+      </c>
+      <c r="F17" s="35">
+        <v>463204000000</v>
       </c>
     </row>
     <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>615</v>
+        <v>647</v>
       </c>
       <c r="B18" t="s">
-        <v>615</v>
+        <v>647</v>
       </c>
       <c r="C18" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D18" t="b">
         <v>1</v>
       </c>
-      <c r="E18" s="1">
-        <v>2799558466140.6802</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="0"/>
-        <v>463203800000</v>
+      <c r="E18" s="43">
+        <v>2799560000000</v>
+      </c>
+      <c r="F18" s="35">
+        <v>463204000000</v>
       </c>
     </row>
     <row r="19" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>616</v>
+        <v>648</v>
       </c>
       <c r="B19" t="s">
-        <v>616</v>
+        <v>648</v>
       </c>
       <c r="C19" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D19" t="b">
         <v>1</v>
       </c>
-      <c r="E19" s="1">
-        <v>2663349812763.1802</v>
-      </c>
-      <c r="F19">
-        <f t="shared" si="0"/>
-        <v>463203800000</v>
+      <c r="E19" s="43">
+        <v>2663350000000</v>
+      </c>
+      <c r="F19" s="35">
+        <v>463204000000</v>
       </c>
     </row>
     <row r="20" spans="1:7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>617</v>
+        <v>649</v>
       </c>
       <c r="B20" t="s">
-        <v>617</v>
+        <v>649</v>
       </c>
       <c r="C20" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D20" t="b">
         <v>1</v>
       </c>
-      <c r="E20" s="1">
-        <v>1576136833664.73</v>
-      </c>
-      <c r="F20">
-        <f t="shared" si="0"/>
-        <v>463203800000</v>
+      <c r="E20" s="43">
+        <v>1576140000000</v>
+      </c>
+      <c r="F20" s="35">
+        <v>463204000000</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>618</v>
+        <v>650</v>
       </c>
       <c r="B21" t="s">
-        <v>618</v>
+        <v>650</v>
       </c>
       <c r="C21" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D21" t="b">
         <v>1</v>
       </c>
-      <c r="E21" s="1">
-        <v>1752794439290.6899</v>
-      </c>
-      <c r="F21">
-        <f t="shared" si="0"/>
-        <v>463203800000</v>
+      <c r="E21" s="43">
+        <v>1752790000000</v>
+      </c>
+      <c r="F21" s="35">
+        <v>463204000000</v>
       </c>
       <c r="G21"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>619</v>
+        <v>651</v>
       </c>
       <c r="B22" t="s">
-        <v>619</v>
+        <v>651</v>
       </c>
       <c r="C22" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D22" t="b">
         <v>1</v>
       </c>
-      <c r="E22" s="1">
-        <v>375145279804.89203</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="0"/>
-        <v>463203800000</v>
+      <c r="E22" s="43">
+        <v>375145000000</v>
+      </c>
+      <c r="F22" s="35">
+        <v>463204000000</v>
       </c>
       <c r="G22"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>620</v>
+        <v>652</v>
       </c>
       <c r="B23" t="s">
-        <v>620</v>
+        <v>652</v>
       </c>
       <c r="C23" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D23" t="b">
         <v>1</v>
       </c>
       <c r="E23" s="1">
-        <v>32970706746.205299</v>
-      </c>
-      <c r="F23">
-        <f t="shared" si="0"/>
-        <v>463203800000</v>
+        <v>32970706746</v>
+      </c>
+      <c r="F23" s="35">
+        <v>463204000000</v>
       </c>
       <c r="G23"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>621</v>
+        <v>653</v>
       </c>
       <c r="B24" t="s">
-        <v>621</v>
+        <v>653</v>
       </c>
       <c r="C24" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D24" t="b">
         <v>1</v>
       </c>
       <c r="E24" s="1">
-        <v>50096876832.508301</v>
-      </c>
-      <c r="F24">
-        <f t="shared" si="0"/>
-        <v>463203800000</v>
+        <v>50096876833</v>
+      </c>
+      <c r="F24" s="35">
+        <v>463204000000</v>
       </c>
       <c r="G24"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>622</v>
+        <v>654</v>
       </c>
       <c r="B25" t="s">
-        <v>622</v>
+        <v>654</v>
       </c>
       <c r="C25" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D25" t="b">
         <v>1</v>
       </c>
       <c r="E25" s="1">
-        <v>32660740137.601898</v>
-      </c>
-      <c r="F25">
-        <f t="shared" si="0"/>
-        <v>463203800000</v>
+        <v>32660740138</v>
+      </c>
+      <c r="F25" s="35">
+        <v>463204000000</v>
       </c>
       <c r="G25"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="B26" t="s">
-        <v>623</v>
+        <v>655</v>
       </c>
       <c r="C26" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D26" t="b">
         <v>1</v>
       </c>
-      <c r="E26" s="1">
-        <v>144097879467.63599</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="0"/>
-        <v>463203800000</v>
+      <c r="E26" s="43">
+        <v>144098000000</v>
+      </c>
+      <c r="F26" s="35">
+        <v>463204000000</v>
       </c>
       <c r="G26"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="B27" t="s">
-        <v>624</v>
+        <v>656</v>
       </c>
       <c r="C27" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D27" t="b">
         <v>1</v>
       </c>
-      <c r="E27" s="1">
-        <v>970975709027.06702</v>
-      </c>
-      <c r="F27">
-        <f t="shared" si="0"/>
-        <v>463203800000</v>
+      <c r="E27" s="43">
+        <v>970976000000</v>
+      </c>
+      <c r="F27" s="35">
+        <v>463204000000</v>
       </c>
       <c r="G27"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="B28" t="s">
-        <v>625</v>
+        <v>657</v>
       </c>
       <c r="C28" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D28" t="b">
         <v>1</v>
       </c>
-      <c r="E28" s="1">
-        <v>2261115778226.2402</v>
-      </c>
-      <c r="F28">
-        <f t="shared" si="0"/>
-        <v>463203800000</v>
+      <c r="E28" s="43">
+        <v>2261120000000</v>
+      </c>
+      <c r="F28" s="35">
+        <v>463204000000</v>
       </c>
       <c r="G28"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>626</v>
+        <v>658</v>
       </c>
       <c r="B29" t="s">
-        <v>626</v>
+        <v>658</v>
       </c>
       <c r="C29" t="s">
-        <v>627</v>
+        <v>635</v>
       </c>
       <c r="D29" t="b">
         <v>1</v>
       </c>
-      <c r="E29">
-        <v>2657735386128.8398</v>
-      </c>
-      <c r="F29">
-        <f t="shared" si="0"/>
-        <v>463203800000</v>
+      <c r="E29" s="35">
+        <v>2657740000000</v>
+      </c>
+      <c r="F29" s="35">
+        <v>463204000000</v>
       </c>
       <c r="G29"/>
     </row>
@@ -9601,13 +8669,13 @@
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="80.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="80.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.6640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="255.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="255.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.6" x14ac:dyDescent="0.3">
@@ -16950,10 +16018,10 @@
         <v>0</v>
       </c>
       <c r="B328" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="C328" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="D328" t="s">
         <v>74</v>
@@ -16964,10 +16032,10 @@
         <v>23</v>
       </c>
       <c r="C329" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="D329" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="E329" t="s">
         <v>2</v>
@@ -16976,10 +16044,10 @@
         <v>68</v>
       </c>
       <c r="H329" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="I329" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
     </row>
     <row r="330" spans="1:9" x14ac:dyDescent="0.3">
@@ -16987,10 +16055,10 @@
         <v>23</v>
       </c>
       <c r="C330" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="D330" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="E330" t="s">
         <v>2</v>
@@ -17007,10 +16075,10 @@
         <v>23</v>
       </c>
       <c r="C331" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="D331" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="E331" t="s">
         <v>2</v>
@@ -17027,10 +16095,10 @@
         <v>23</v>
       </c>
       <c r="C332" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="D332" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="E332" t="s">
         <v>2</v>
@@ -17047,10 +16115,10 @@
         <v>23</v>
       </c>
       <c r="C333" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="D333" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="E333" t="s">
         <v>2</v>
@@ -17064,10 +16132,10 @@
         <v>23</v>
       </c>
       <c r="C334" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D334" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="E334" t="s">
         <v>2</v>
@@ -17076,10 +16144,10 @@
         <v>68</v>
       </c>
       <c r="H334" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="I334" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
     </row>
     <row r="335" spans="1:9" x14ac:dyDescent="0.3">
@@ -17087,10 +16155,10 @@
         <v>23</v>
       </c>
       <c r="C335" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="D335" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="E335" t="s">
         <v>2</v>
@@ -17099,10 +16167,10 @@
         <v>68</v>
       </c>
       <c r="H335" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="I335" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
     </row>
     <row r="336" spans="1:9" x14ac:dyDescent="0.3">
@@ -17110,10 +16178,10 @@
         <v>0</v>
       </c>
       <c r="B336" t="s">
-        <v>538</v>
+        <v>527</v>
       </c>
       <c r="C336" t="s">
-        <v>539</v>
+        <v>528</v>
       </c>
       <c r="D336" t="s">
         <v>74</v>
@@ -17124,10 +16192,10 @@
         <v>23</v>
       </c>
       <c r="C337" t="s">
-        <v>540</v>
+        <v>529</v>
       </c>
       <c r="D337" t="s">
-        <v>541</v>
+        <v>530</v>
       </c>
       <c r="E337" t="s">
         <v>2</v>
@@ -17136,10 +16204,10 @@
         <v>68</v>
       </c>
       <c r="H337" t="s">
-        <v>542</v>
+        <v>531</v>
       </c>
       <c r="I337" t="s">
-        <v>543</v>
+        <v>532</v>
       </c>
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.3">
@@ -17147,10 +16215,10 @@
         <v>23</v>
       </c>
       <c r="C338" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="D338" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="E338" t="s">
         <v>2</v>
@@ -17159,10 +16227,10 @@
         <v>68</v>
       </c>
       <c r="H338" t="s">
-        <v>545</v>
+        <v>534</v>
       </c>
       <c r="I338" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
     </row>
     <row r="339" spans="1:16" x14ac:dyDescent="0.3">
@@ -17170,10 +16238,10 @@
         <v>23</v>
       </c>
       <c r="C339" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="D339" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="E339" t="s">
         <v>2</v>
@@ -17190,10 +16258,10 @@
         <v>23</v>
       </c>
       <c r="C340" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
       <c r="D340" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
       <c r="E340" t="s">
         <v>2</v>
@@ -17210,10 +16278,10 @@
         <v>23</v>
       </c>
       <c r="C341" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
       <c r="D341" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
       <c r="E341" t="s">
         <v>2</v>
@@ -17227,10 +16295,10 @@
         <v>0</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="C342" s="1" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>74</v>
@@ -17254,10 +16322,10 @@
         <v>23</v>
       </c>
       <c r="C343" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="D343" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="E343" t="s">
         <v>2</v>
@@ -17266,10 +16334,10 @@
         <v>68</v>
       </c>
       <c r="H343" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="I343" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="L343" s="1"/>
       <c r="M343" s="1"/>
@@ -17283,10 +16351,10 @@
         <v>23</v>
       </c>
       <c r="C344" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="D344" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="E344" t="s">
         <v>2</v>
@@ -17321,10 +16389,10 @@
         <v>0</v>
       </c>
       <c r="B345" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="C345" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>74</v>
@@ -17335,10 +16403,10 @@
         <v>23</v>
       </c>
       <c r="C346" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="D346" s="1" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="E346" t="s">
         <v>2</v>
@@ -17549,10 +16617,10 @@
         <v>0</v>
       </c>
       <c r="B357" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="C357" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="D357" t="s">
         <v>74</v>
@@ -17563,10 +16631,10 @@
         <v>23</v>
       </c>
       <c r="C358" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="D358" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="E358" t="s">
         <v>2</v>
@@ -17583,10 +16651,10 @@
         <v>23</v>
       </c>
       <c r="C359" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="D359" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="E359" t="s">
         <v>2</v>
@@ -17603,10 +16671,10 @@
         <v>0</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="C360" s="1" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="D360" s="1" t="s">
         <v>74</v>
@@ -17619,10 +16687,10 @@
         <v>23</v>
       </c>
       <c r="C361" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="D361" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="E361" t="s">
         <v>2</v>
@@ -17632,10 +16700,10 @@
       </c>
       <c r="G361"/>
       <c r="H361" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="I361" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="J361"/>
       <c r="K361"/>
@@ -17646,10 +16714,10 @@
         <v>24</v>
       </c>
       <c r="C362" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="D362" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="E362" t="s">
         <v>15</v>
@@ -17686,10 +16754,10 @@
         <v>0</v>
       </c>
       <c r="B363" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="C363" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>74</v>
@@ -17700,10 +16768,10 @@
         <v>23</v>
       </c>
       <c r="C364" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="D364" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="E364" t="s">
         <v>2</v>
@@ -17720,10 +16788,10 @@
         <v>0</v>
       </c>
       <c r="B365" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="C365" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>74</v>
@@ -17734,10 +16802,10 @@
         <v>23</v>
       </c>
       <c r="C366" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="D366" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="E366" t="s">
         <v>2</v>
@@ -17772,9 +16840,9 @@
   <cols>
     <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" customWidth="1"/>
+    <col min="4" max="4" width="15.33203125" customWidth="1"/>
     <col min="5" max="5" width="16.109375" customWidth="1"/>
-    <col min="8" max="8" width="22.21875" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
     <col min="17" max="17" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17835,16 +16903,16 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>661</v>
+        <v>609</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>643</v>
+        <v>591</v>
       </c>
       <c r="E7" t="s">
-        <v>644</v>
+        <v>592</v>
       </c>
       <c r="G7" t="s">
-        <v>663</v>
+        <v>611</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.3">
@@ -17855,7 +16923,7 @@
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>645</v>
+        <v>593</v>
       </c>
       <c r="G8" t="s">
         <v>490</v>
@@ -17869,66 +16937,66 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="37" customFormat="1" x14ac:dyDescent="0.3"/>
+        <v>577</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" s="36" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>637</v>
+        <v>585</v>
       </c>
       <c r="C12" t="s">
-        <v>638</v>
+        <v>586</v>
       </c>
       <c r="F12" t="s">
         <v>15</v>
       </c>
       <c r="I12" t="s">
-        <v>648</v>
+        <v>596</v>
       </c>
       <c r="L12" t="s">
-        <v>651</v>
+        <v>599</v>
       </c>
       <c r="O12" t="s">
-        <v>655</v>
-      </c>
-      <c r="R12" s="37" t="s">
-        <v>641</v>
-      </c>
-      <c r="U12" s="37" t="s">
-        <v>642</v>
+        <v>603</v>
+      </c>
+      <c r="R12" s="36" t="s">
+        <v>589</v>
+      </c>
+      <c r="U12" s="36" t="s">
+        <v>590</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>638</v>
+        <v>586</v>
       </c>
       <c r="F13" t="s">
-        <v>662</v>
+        <v>610</v>
       </c>
       <c r="G13" t="s">
         <v>474</v>
       </c>
       <c r="H13" t="s">
-        <v>664</v>
+        <v>612</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="J13" s="36">
+        <v>571</v>
+      </c>
+      <c r="J13" s="35">
         <v>0.01</v>
       </c>
-      <c r="K13" s="38" t="s">
-        <v>670</v>
+      <c r="K13" s="37" t="s">
+        <v>618</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>653</v>
+        <v>601</v>
       </c>
       <c r="M13">
         <v>30</v>
       </c>
       <c r="N13" t="s">
-        <v>672</v>
+        <v>620</v>
       </c>
       <c r="O13" t="s">
         <v>4</v>
@@ -17936,8 +17004,8 @@
       <c r="P13">
         <v>30</v>
       </c>
-      <c r="Q13" s="37" t="s">
-        <v>672</v>
+      <c r="Q13" s="36" t="s">
+        <v>620</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.3">
@@ -17951,229 +17019,229 @@
         <v>30</v>
       </c>
       <c r="H14" t="s">
-        <v>681</v>
+        <v>631</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="J14" s="36">
+        <v>576</v>
+      </c>
+      <c r="J14" s="35">
         <v>0.01</v>
       </c>
       <c r="K14" t="s">
-        <v>669</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>656</v>
+        <v>617</v>
+      </c>
+      <c r="L14" s="37" t="s">
+        <v>604</v>
       </c>
       <c r="M14">
         <v>5</v>
       </c>
-      <c r="N14" s="37" t="s">
-        <v>671</v>
-      </c>
-      <c r="O14" s="38" t="s">
-        <v>656</v>
+      <c r="N14" s="36" t="s">
+        <v>619</v>
+      </c>
+      <c r="O14" s="37" t="s">
+        <v>604</v>
       </c>
       <c r="P14">
         <v>3</v>
       </c>
       <c r="Q14" t="s">
-        <v>671</v>
+        <v>619</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>575</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="J15" s="35">
+        <v>45036000000000</v>
+      </c>
+      <c r="K15" t="s">
+        <v>616</v>
+      </c>
+      <c r="L15" s="1" t="s">
         <v>600</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="J15" s="36">
-        <v>45036000000000</v>
-      </c>
-      <c r="K15" t="s">
-        <v>668</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>652</v>
-      </c>
       <c r="M15">
         <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>676</v>
-      </c>
-      <c r="O15" s="38" t="s">
-        <v>657</v>
+        <v>624</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>605</v>
       </c>
       <c r="P15">
         <v>0.85</v>
       </c>
       <c r="Q15" t="s">
-        <v>677</v>
+        <v>625</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>640</v>
+        <v>588</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>650</v>
+        <v>598</v>
       </c>
       <c r="J16">
         <v>100</v>
       </c>
       <c r="K16" t="s">
-        <v>667</v>
+        <v>615</v>
       </c>
       <c r="L16" t="s">
-        <v>673</v>
+        <v>621</v>
       </c>
       <c r="M16">
         <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>674</v>
-      </c>
-      <c r="O16" s="38" t="s">
-        <v>658</v>
+        <v>622</v>
+      </c>
+      <c r="O16" s="37" t="s">
+        <v>606</v>
       </c>
       <c r="P16">
         <v>2</v>
       </c>
       <c r="Q16" t="s">
-        <v>679</v>
+        <v>627</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>639</v>
+        <v>587</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="J17" s="38" t="s">
-        <v>598</v>
+        <v>572</v>
+      </c>
+      <c r="J17" s="37" t="s">
+        <v>573</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>654</v>
-      </c>
-      <c r="M17" s="36">
+        <v>602</v>
+      </c>
+      <c r="M17" s="35">
         <v>0.01</v>
       </c>
-      <c r="N17" s="38" t="s">
-        <v>675</v>
-      </c>
-      <c r="O17" s="38" t="s">
-        <v>659</v>
+      <c r="N17" s="37" t="s">
+        <v>623</v>
+      </c>
+      <c r="O17" s="37" t="s">
+        <v>607</v>
       </c>
       <c r="P17">
         <v>2</v>
       </c>
-      <c r="Q17" s="37" t="s">
-        <v>680</v>
+      <c r="Q17" s="36" t="s">
+        <v>628</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>641</v>
+        <v>589</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="J18" s="38">
+        <v>574</v>
+      </c>
+      <c r="J18" s="37">
         <v>2</v>
       </c>
       <c r="K18" t="s">
-        <v>666</v>
+        <v>614</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>596</v>
-      </c>
-      <c r="M18" s="36">
+        <v>571</v>
+      </c>
+      <c r="M18" s="35">
         <v>0.01</v>
       </c>
-      <c r="N18" s="38" t="s">
-        <v>670</v>
-      </c>
-      <c r="O18" s="38" t="s">
-        <v>660</v>
+      <c r="N18" s="37" t="s">
+        <v>618</v>
+      </c>
+      <c r="O18" s="37" t="s">
+        <v>608</v>
       </c>
       <c r="P18">
         <v>0.8</v>
       </c>
       <c r="Q18" t="s">
-        <v>678</v>
+        <v>626</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>642</v>
+        <v>590</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>601</v>
-      </c>
-      <c r="M19" s="36">
+        <v>576</v>
+      </c>
+      <c r="M19" s="35">
         <v>0.01</v>
       </c>
-      <c r="N19" s="37" t="s">
-        <v>669</v>
-      </c>
-      <c r="O19" s="38" t="s">
-        <v>597</v>
-      </c>
-      <c r="P19" s="38" t="s">
-        <v>598</v>
+      <c r="N19" s="36" t="s">
+        <v>617</v>
+      </c>
+      <c r="O19" s="37" t="s">
+        <v>572</v>
+      </c>
+      <c r="P19" s="37" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L20" s="1" t="s">
-        <v>649</v>
-      </c>
-      <c r="M20" s="36">
+        <v>597</v>
+      </c>
+      <c r="M20" s="35">
         <v>45036000000000</v>
       </c>
-      <c r="N20" s="37" t="s">
-        <v>668</v>
-      </c>
-      <c r="O20" s="38" t="s">
-        <v>599</v>
-      </c>
-      <c r="P20" s="38">
-        <v>2</v>
-      </c>
-      <c r="Q20" s="37" t="s">
-        <v>666</v>
+      <c r="N20" s="36" t="s">
+        <v>616</v>
+      </c>
+      <c r="O20" s="37" t="s">
+        <v>574</v>
+      </c>
+      <c r="P20" s="37">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="36" t="s">
+        <v>614</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L21" s="1" t="s">
-        <v>650</v>
-      </c>
-      <c r="M21" s="37">
+        <v>598</v>
+      </c>
+      <c r="M21" s="36">
         <v>100</v>
       </c>
-      <c r="N21" s="37" t="s">
-        <v>667</v>
+      <c r="N21" s="36" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L22" s="1" t="s">
-        <v>597</v>
-      </c>
-      <c r="M22" s="38" t="s">
-        <v>598</v>
+        <v>572</v>
+      </c>
+      <c r="M22" s="37" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="L23" s="1" t="s">
-        <v>599</v>
-      </c>
-      <c r="M23" s="38">
-        <v>2</v>
-      </c>
-      <c r="N23" s="37" t="s">
-        <v>666</v>
+        <v>574</v>
+      </c>
+      <c r="M23" s="37">
+        <v>2</v>
+      </c>
+      <c r="N23" s="36" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>
